--- a/Lab 6/neutral moment update.xlsx
+++ b/Lab 6/neutral moment update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\ae460\lab05_06\AE-460\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65BADC6B-C06A-477E-8EB9-AAF313228ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6E21C-785F-4066-B222-69D1662F00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
@@ -3530,8 +3530,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Neutral Moment</a:t>
+              <a:t>Neutral</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Moment vs Angle of Attack</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3568,11 +3573,14 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3585,53 +3593,104 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>('100 ft'!$I$4,'100 ft'!$P$4:$AB$4)</c:f>
+              <c:f>'40 ft '!$S$7:$S$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-3.9458688</c:v>
+                  <c:v>-4.0709042000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11741277999999999</c:v>
+                  <c:v>-1.9768829000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10495575999999995</c:v>
+                  <c:v>-3.4004100000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.2498740000000024E-2</c:v>
+                  <c:v>2.0190073900000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0041719999999983E-2</c:v>
+                  <c:v>4.0295488800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7584699999999998E-2</c:v>
+                  <c:v>5.92998504</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5127680000000012E-2</c:v>
+                  <c:v>8.0007105500000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2670659999999971E-2</c:v>
+                  <c:v>10.0275877</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0213640000000042E-2</c:v>
+                  <c:v>11.9743014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7756620000000001E-2</c:v>
+                  <c:v>14.0581964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2995999999999599E-3</c:v>
+                  <c:v>15.997199500000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.1574199999999699E-3</c:v>
+                  <c:v>17.959525500000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.9614440000000011E-2</c:v>
+                  <c:v>20.004430599999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.2071459999999941E-2</c:v>
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'40 ft '!$P$24:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-2.0326000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9994560000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0495970000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7030833999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4022945999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2221816000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7665446000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2601799999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.7197699999999547E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.8239259999999757E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8301739999999622E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.748754000000019E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.3441419999999953E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.485596000000037E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3639,13 +3698,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000002-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3660,51 +3722,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$5,'100 ft'!$P$5:$AB$5)</c:f>
+              <c:f>'40 ft '!$Q$24:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-2.0466473000000001</c:v>
+                  <c:v>-2.1974174999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.066594000000002E-2</c:v>
+                  <c:v>-2.0901414999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3596805000000016E-2</c:v>
+                  <c:v>-2.0592760000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6527670000000012E-2</c:v>
+                  <c:v>-1.6098060999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9458535000000008E-2</c:v>
+                  <c:v>-2.2221269000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2389400000000004E-2</c:v>
+                  <c:v>-1.9395986500000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5320265000000055E-2</c:v>
+                  <c:v>-1.4056671500000034E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2511299999999954E-3</c:v>
+                  <c:v>-8.2621800000000079E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1819949999999912E-3</c:v>
+                  <c:v>2.2378100000000067E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5.8871400000000129E-3</c:v>
+                  <c:v>3.4223334999999855E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2956275000000017E-2</c:v>
+                  <c:v>7.0813659999999778E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.0025409999999966E-2</c:v>
+                  <c:v>7.3931684999999914E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.7094545000000025E-2</c:v>
+                  <c:v>1.0455490499999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.4163679999999974E-2</c:v>
+                  <c:v>1.2045768999999984E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3712,13 +3774,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000004-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Series 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3733,51 +3798,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$6,'100 ft'!$P$6:$AB$6)</c:f>
+              <c:f>'40 ft '!$R$24:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-3.3471899999999999E-2</c:v>
+                  <c:v>-2.3622350000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7265619999999997E-2</c:v>
+                  <c:v>-2.1808270000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8408839999999998E-2</c:v>
+                  <c:v>-2.0689550000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.9552059999999998E-2</c:v>
+                  <c:v>-1.5165287999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.0695279999999998E-2</c:v>
+                  <c:v>-2.0419591999999986E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.1838499999999999E-2</c:v>
+                  <c:v>-1.6570157000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.2981719999999992E-2</c:v>
+                  <c:v>-1.0447897000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.4124939999999999E-2</c:v>
+                  <c:v>-3.9225599999999639E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.526816E-2</c:v>
+                  <c:v>7.1953900000000237E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.641138E-2</c:v>
+                  <c:v>8.6685930000000022E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-3.75546E-2</c:v>
+                  <c:v>1.2332557999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.8697819999999994E-2</c:v>
+                  <c:v>1.3037583000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.9841040000000001E-2</c:v>
+                  <c:v>1.6566839E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.0984259999999995E-2</c:v>
+                  <c:v>1.8605942000000042E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3785,13 +3850,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000005-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>Series 4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3806,51 +3874,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$7,'100 ft'!$P$7:$AB$7)</c:f>
+              <c:f>'40 ft '!$S$24:$S$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.9196833099999999</c:v>
+                  <c:v>-2.5270525000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.3850718000000027E-2</c:v>
+                  <c:v>-2.2715124999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.0010003500000019E-2</c:v>
+                  <c:v>-2.078634E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.6169289000000038E-2</c:v>
+                  <c:v>-1.4232515000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.2328574500000029E-2</c:v>
+                  <c:v>-1.8617914999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.848786000000002E-2</c:v>
+                  <c:v>-1.3744327500000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.4647145500000039E-2</c:v>
+                  <c:v>-6.8391225000000166E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.0806431000000003E-2</c:v>
+                  <c:v>4.1705999999999688E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-6.6965716500000022E-2</c:v>
+                  <c:v>1.2152970000000041E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.3125002000000013E-2</c:v>
+                  <c:v>1.3914852500000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.9284287500000032E-2</c:v>
+                  <c:v>1.7583749999999954E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5.5443573000000024E-2</c:v>
+                  <c:v>1.8681997500000047E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.1602858500000015E-2</c:v>
+                  <c:v>2.2678187500000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.7762144000000034E-2</c:v>
+                  <c:v>2.5166114999999989E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,13 +3926,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000006-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>Series 5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3879,51 +3950,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$8,'100 ft'!$P$8:$AB$8)</c:f>
+              <c:f>'40 ft '!$T$24:$T$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>4.0854886199999996</c:v>
+                  <c:v>-2.6918700000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.17914404600000006</c:v>
+                  <c:v>-2.3621979999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.16881018450000002</c:v>
+                  <c:v>-2.088313E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.15847632300000009</c:v>
+                  <c:v>-1.3299742000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.14814246150000004</c:v>
+                  <c:v>-1.6816237999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.13780860000000006</c:v>
+                  <c:v>-1.0918498000000026E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.12747473850000007</c:v>
+                  <c:v>-3.2303480000000495E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.11714087700000003</c:v>
+                  <c:v>4.7566799999999854E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.1068070155000001</c:v>
+                  <c:v>1.7110550000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.6473154000000005E-2</c:v>
+                  <c:v>1.916111199999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.6139292500000075E-2</c:v>
+                  <c:v>2.2834941999999969E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.580543100000009E-2</c:v>
+                  <c:v>2.4326412000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6.5471569500000049E-2</c:v>
+                  <c:v>2.8789536000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.5137708000000063E-2</c:v>
+                  <c:v>3.1726287999999991E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3931,13 +4002,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000007-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>Series 6</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3952,51 +4026,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$9,'100 ft'!$P$9:$AB$9)</c:f>
+              <c:f>'40 ft '!$U$24:$U$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.94443739</c:v>
+                  <c:v>-2.8566875000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.23734350400000004</c:v>
+                  <c:v>-2.4528835000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.22087217800000003</c:v>
+                  <c:v>-2.0979919999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.20440085200000002</c:v>
+                  <c:v>-1.2366968999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18792952600000001</c:v>
+                  <c:v>-1.5014560999999982E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.17145820000000001</c:v>
+                  <c:v>-8.0926685000000109E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.15498687400000011</c:v>
+                  <c:v>3.7842649999997313E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.13851554799999999</c:v>
+                  <c:v>9.0963000000000294E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.12204422199999998</c:v>
+                  <c:v>2.2068130000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.10557289599999997</c:v>
+                  <c:v>2.4407371499999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.9101569999999963E-2</c:v>
+                  <c:v>2.8086133999999985E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.2630244000000066E-2</c:v>
+                  <c:v>2.9970826500000047E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.6158917999999947E-2</c:v>
+                  <c:v>3.4900884500000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.9687592000000049E-2</c:v>
+                  <c:v>3.8286460999999994E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4004,13 +4078,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000008-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>Series 7</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4027,51 +4104,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>('100 ft'!$I$10,'100 ft'!$P$10:$AB$10)</c:f>
+              <c:f>'40 ft '!$V$24:$V$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7.9381382900000004</c:v>
+                  <c:v>-3.0215050000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.28981828000000009</c:v>
+                  <c:v>-2.543569E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.26694715250000001</c:v>
+                  <c:v>-2.1076709999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.24407602500000014</c:v>
+                  <c:v>-1.1434196000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.22120489750000005</c:v>
+                  <c:v>-1.3212883999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.19833377000000008</c:v>
+                  <c:v>-5.2668390000000231E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.17546264250000021</c:v>
+                  <c:v>3.987200999999968E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.15259151500000001</c:v>
+                  <c:v>1.343591999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.12972038750000014</c:v>
+                  <c:v>2.7025709999999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.10684925999999995</c:v>
+                  <c:v>2.9653630999999958E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-8.3978132499999969E-2</c:v>
+                  <c:v>3.3337325999999945E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.1107005000000214E-2</c:v>
+                  <c:v>3.561524100000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.8235877500000015E-2</c:v>
+                  <c:v>4.1012233000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5364750000000038E-2</c:v>
+                  <c:v>4.4846633999999996E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4079,534 +4156,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$11,'100 ft'!$P$11:$AB$11)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>10.0329374</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.31749673599999984</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28963809949999986</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26177946299999988</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.2339208264999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.20606218999999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.17820355349999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.15034491699999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.12248628049999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.4627643999999789E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-6.6769007500000033E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.8910371000000055E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.1051734499999855E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6806902000000123E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$12,'100 ft'!$P$12:$AB$12)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>11.979269</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.3100574439999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28089846299999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.25173948200000007</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.22258050099999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.19342152000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.1642625390000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13510355799999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.10594457700000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-7.67855959999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.7626614999999983E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.8467634000000066E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0691347000000073E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.985032799999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$13,'100 ft'!$P$13:$AB$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>13.9203873</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.30411726399999983</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.27337118549999984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.24262510699999984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.21187902849999984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.18113294999999985</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.15038687149999985</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.11964079299999986</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.8894714499999861E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.8148635999999643E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.7402557499999869E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.343521000000127E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4089599500000123E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4835678000000119E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$14,'100 ft'!$P$14:$AB$14)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>15.9829109</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.30582640800000016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.27400742850000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.24218844900000014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.21036946950000024</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.17855049000000012</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.14673151050000022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.1149125310000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.3093551500000196E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.1274572000000074E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.9455592500000174E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2363386999999726E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.4182366499999848E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.6001345999999748E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$15,'100 ft'!$P$15:$AB$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>17.913944000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.31564471000000016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.28343560499999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.25122650000000024</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.21901739500000006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.1868082900000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.15459918500000014</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.12239007999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.0180975000000219E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-5.7971870000000036E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.5762765000000076E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.4463399999998838E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8655444999999844E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.0864549999999804E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$16,'100 ft'!$P$16:$AB$16)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>20.051144799999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.32901354599999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.29592870199999988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.26284385799999987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.22975901399999987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.19667416999999987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.16358932600000009</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13050448199999987</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.7419637999999864E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.433479399999964E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-3.124994999999986E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.8348939999999203E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.4919738000000144E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.8004582000000147E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4156-4BA1-BF98-C173EE8CFF36}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>('100 ft'!$I$17,'100 ft'!$P$17:$AB$17)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>22.044026899999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.34750113199999988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.31200748399999978</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.2765138359999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.24102018800000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.20552653999999992</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.17003289200000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.13453924399999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.9045596000000069E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-6.3551947999999747E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.8058299999999869E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.4353480000000083E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.2928996000000108E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8422643999999986E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-4156-4BA1-BF98-C173EE8CFF36}"/>
+              <c16:uniqueId val="{00000009-DE03-4925-A992-AB3CE0748DF1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4619,16 +4169,72 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1912766543"/>
-        <c:axId val="1912765295"/>
+        <c:axId val="1115713984"/>
+        <c:axId val="1115691520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1912766543"/>
+        <c:axId val="1115713984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of Attack (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4665,7 +4271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1912765295"/>
+        <c:crossAx val="1115691520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4673,11 +4279,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1912765295"/>
+        <c:axId val="1115691520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3"/>
-          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4695,6 +4299,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Neutral Moment at Point</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4726,7 +4385,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1912766543"/>
+        <c:crossAx val="1115713984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4770,7 +4429,7 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4814,6 +4473,1352 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Neutral Moment vs Angle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Attack</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$Q$4:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5.2995999999999599E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2956275000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.75546E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9284287500000032E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.6139292500000075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.9101569999999963E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-8.3978132499999969E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.6769007500000033E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.7626614999999983E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.7402557499999869E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9455592500000174E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.5762765000000076E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.124994999999986E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.8058299999999869E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Series 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$R$4:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-7.1574199999999699E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0025409999999966E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8697819999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5443573000000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.580543100000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2630244000000066E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.1107005000000214E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8910371000000055E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8467634000000066E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.343521000000127E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2363386999999726E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4463399999998838E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8348939999999203E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4353480000000083E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Series 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$S$4:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.9614440000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7094545000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9841040000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.1602858500000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.5471569500000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6158917999999947E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8235877500000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.1051734499999855E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0691347000000073E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4089599500000123E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4182366499999848E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8655444999999844E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4919738000000144E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2928996000000108E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Series 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$T$4:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.2071459999999941E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.4163679999999974E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.0984259999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.7762144000000034E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.5137708000000063E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9687592000000049E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5364750000000038E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6806902000000123E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.985032799999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4835678000000119E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6001345999999748E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.0864549999999804E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8004582000000147E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8422643999999986E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Series 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$V$4:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-5.6985500000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.8301949999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.3270700000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.0080715000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.4469985000000092E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.7449400000000326E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0377504999999916E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.252417500000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8168290000000047E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12632783500000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13963930499999977</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13528275999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13417427000000015</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14940994000000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Series 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$W$4:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-6.9442519999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5371084999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4413919999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.6240000500000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4136123500000051E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7263859999999758E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3248632499999893E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10038281150000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12732727099999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15707391350000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17145828449999967</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16749186499999968</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16725911399999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18490358799999984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Series 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'100 ft'!$I$4:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-3.9458688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0466473000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.3471899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9196833099999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0854886199999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.94443739</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9381382900000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0329374</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.979269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.9203873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.9829109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.913944000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.051144799999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.044026899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'100 ft'!$X$4:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-8.1899539999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2440219999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5557140000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.2399286000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.380226200000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6197711999999984E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.611975999999987E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12824144800000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1564862520000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18781999200000032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20327726400000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19970096999999987</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20034395800000016</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.22039723600000016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8C86-4CB0-A785-09A8B97113A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1027513696"/>
+        <c:axId val="1027514112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1027513696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of Attack (Degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1027514112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1027514112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Moment at Neutral Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1027513696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5435,7 +6440,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6087,7 +7092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6623,7 +7628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7134,7 +8139,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7965,6 +8970,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11578,6 +12623,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12172,6 +13733,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>141515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9007F9A-66EE-CF6B-EA1D-934B7F25BFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12179,23 +13776,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264CA737-E28C-1116-435B-A076C3F52F9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33DB0459-3672-5BA5-11D7-9E12CFDA399F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14517,8 +16114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16254,34 +17851,31 @@
         <v> [in-Lbf]</v>
       </c>
       <c r="P22">
+        <v>2.6</v>
+      </c>
+      <c r="Q22">
+        <v>2.65</v>
+      </c>
+      <c r="R22">
+        <v>2.7</v>
+      </c>
+      <c r="S22">
+        <v>2.75</v>
+      </c>
+      <c r="T22">
+        <v>2.8</v>
+      </c>
+      <c r="U22">
+        <v>2.85</v>
+      </c>
+      <c r="V22">
+        <v>2.9</v>
+      </c>
+      <c r="W22">
         <v>2.95</v>
       </c>
-      <c r="Q22">
+      <c r="X22">
         <v>3</v>
-      </c>
-      <c r="R22">
-        <v>3.05</v>
-      </c>
-      <c r="S22">
-        <v>3.1</v>
-      </c>
-      <c r="T22">
-        <v>3.15</v>
-      </c>
-      <c r="U22">
-        <v>3.2</v>
-      </c>
-      <c r="V22">
-        <v>3.25</v>
-      </c>
-      <c r="W22">
-        <v>3.3</v>
-      </c>
-      <c r="X22">
-        <v>3.35</v>
-      </c>
-      <c r="Y22">
-        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
@@ -16363,8 +17957,40 @@
         <v>0.40469650800000001</v>
       </c>
       <c r="P24">
-        <f>3.5*N4 - O4</f>
-        <v>-4.999315E-2</v>
+        <f>2.6*N4 - O4</f>
+        <v>-2.0326000000000011E-2</v>
+      </c>
+      <c r="Q24">
+        <f>2.65*N4 - O4</f>
+        <v>-2.1974174999999999E-2</v>
+      </c>
+      <c r="R24">
+        <f>2.7*N4 - O4</f>
+        <v>-2.3622350000000014E-2</v>
+      </c>
+      <c r="S24">
+        <f>2.75*N4 - O4</f>
+        <v>-2.5270525000000002E-2</v>
+      </c>
+      <c r="T24">
+        <f>2.8*N4 - O4</f>
+        <v>-2.6918700000000004E-2</v>
+      </c>
+      <c r="U24">
+        <f>2.85*N4 - O4</f>
+        <v>-2.8566875000000005E-2</v>
+      </c>
+      <c r="V24">
+        <f>2.9*N4 - O4</f>
+        <v>-3.0215050000000007E-2</v>
+      </c>
+      <c r="W24">
+        <f>2.95*N4 - O4</f>
+        <v>-3.1863225000000009E-2</v>
+      </c>
+      <c r="X24">
+        <f>3*N4 - O4</f>
+        <v>-3.3511399999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
@@ -16429,8 +18055,40 @@
         <v>0.44069835999999996</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P37" si="15">3.5*N5 - O5</f>
-        <v>-3.6317950000000002E-2</v>
+        <f t="shared" ref="P25:P37" si="15">2.6*N5 - O5</f>
+        <v>-1.9994560000000005E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" ref="Q25:Q37" si="16">2.65*N5 - O5</f>
+        <v>-2.0901414999999996E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" ref="R25:R37" si="17">2.7*N5 - O5</f>
+        <v>-2.1808270000000001E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S37" si="18">2.75*N5 - O5</f>
+        <v>-2.2715124999999999E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:T37" si="19">2.8*N5 - O5</f>
+        <v>-2.3621979999999997E-2</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:U37" si="20">2.85*N5 - O5</f>
+        <v>-2.4528835000000002E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V37" si="21">2.9*N5 - O5</f>
+        <v>-2.543569E-2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" ref="W25:W37" si="22">2.95*N5 - O5</f>
+        <v>-2.6342545000000005E-2</v>
+      </c>
+      <c r="X25">
+        <f t="shared" ref="X25:X37" si="23">3*N5 - O5</f>
+        <v>-2.7249399999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.3">
@@ -16496,7 +18154,39 @@
       </c>
       <c r="P26">
         <f t="shared" si="15"/>
-        <v>-2.2238190000000001E-2</v>
+        <v>-2.0495970000000002E-2</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="16"/>
+        <v>-2.0592760000000002E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="17"/>
+        <v>-2.0689550000000001E-2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="18"/>
+        <v>-2.078634E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="19"/>
+        <v>-2.088313E-2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="20"/>
+        <v>-2.0979919999999999E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="21"/>
+        <v>-2.1076709999999999E-2</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="22"/>
+        <v>-2.1173500000000001E-2</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="23"/>
+        <v>-2.1270290000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -16562,7 +18252,39 @@
       </c>
       <c r="P27">
         <f t="shared" si="15"/>
-        <v>-2.4092000000000557E-4</v>
+        <v>-1.7030833999999995E-2</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="16"/>
+        <v>-1.6098060999999997E-2</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="17"/>
+        <v>-1.5165287999999992E-2</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="18"/>
+        <v>-1.4232515000000001E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="19"/>
+        <v>-1.3299742000000003E-2</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="20"/>
+        <v>-1.2366968999999998E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="21"/>
+        <v>-1.1434196000000001E-2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="22"/>
+        <v>-1.0501422999999996E-2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="23"/>
+        <v>-9.568649999999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
@@ -16628,7 +18350,39 @@
       </c>
       <c r="P28">
         <f t="shared" si="15"/>
-        <v>8.4072399999999964E-3</v>
+        <v>-2.4022945999999989E-2</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="16"/>
+        <v>-2.2221269000000002E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="17"/>
+        <v>-2.0419591999999986E-2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="18"/>
+        <v>-1.8617914999999999E-2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="19"/>
+        <v>-1.6816237999999997E-2</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="20"/>
+        <v>-1.5014560999999982E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="21"/>
+        <v>-1.3212883999999994E-2</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="22"/>
+        <v>-1.1411206999999979E-2</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="23"/>
+        <v>-9.6095299999999911E-3</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
@@ -16694,7 +18448,39 @@
       </c>
       <c r="P29">
         <f t="shared" si="15"/>
-        <v>2.8643114999999997E-2</v>
+        <v>-2.2221816000000005E-2</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="16"/>
+        <v>-1.9395986500000018E-2</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="17"/>
+        <v>-1.6570157000000002E-2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="18"/>
+        <v>-1.3744327500000014E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="19"/>
+        <v>-1.0918498000000026E-2</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="20"/>
+        <v>-8.0926685000000109E-3</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="21"/>
+        <v>-5.2668390000000231E-3</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="22"/>
+        <v>-2.4410095000000076E-3</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="23"/>
+        <v>3.8481999999998018E-4</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
@@ -16760,7 +18546,39 @@
       </c>
       <c r="P30">
         <f t="shared" si="15"/>
-        <v>4.7292494999999962E-2</v>
+        <v>-1.7665446000000029E-2</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="16"/>
+        <v>-1.4056671500000034E-2</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="17"/>
+        <v>-1.0447897000000012E-2</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="18"/>
+        <v>-6.8391225000000166E-3</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="19"/>
+        <v>-3.2303480000000495E-3</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="20"/>
+        <v>3.7842649999997313E-4</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="21"/>
+        <v>3.987200999999968E-3</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="22"/>
+        <v>7.5959754999999907E-3</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="23"/>
+        <v>1.1204749999999958E-2</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
@@ -16826,7 +18644,39 @@
       </c>
       <c r="P31">
         <f t="shared" si="15"/>
-        <v>6.5511360000000018E-2</v>
+        <v>-1.2601799999999996E-2</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="16"/>
+        <v>-8.2621800000000079E-3</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="17"/>
+        <v>-3.9225599999999639E-3</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="18"/>
+        <v>4.1705999999999688E-4</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="19"/>
+        <v>4.7566799999999854E-3</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="20"/>
+        <v>9.0963000000000294E-3</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="21"/>
+        <v>1.343591999999999E-2</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="22"/>
+        <v>1.7775540000000034E-2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="23"/>
+        <v>2.2115160000000023E-2</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
@@ -16892,10 +18742,42 @@
       </c>
       <c r="P32">
         <f t="shared" si="15"/>
-        <v>8.6516670000000018E-2</v>
+        <v>-2.7197699999999547E-3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="16"/>
+        <v>2.2378100000000067E-3</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="17"/>
+        <v>7.1953900000000237E-3</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="18"/>
+        <v>1.2152970000000041E-2</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="19"/>
+        <v>1.7110550000000002E-2</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="20"/>
+        <v>2.2068130000000019E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="21"/>
+        <v>2.7025709999999981E-2</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="22"/>
+        <v>3.1983290000000053E-2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="23"/>
+        <v>3.6940870000000015E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <f t="shared" si="14"/>
         <v>10</v>
@@ -16958,10 +18840,42 @@
       </c>
       <c r="P33">
         <f t="shared" si="15"/>
-        <v>9.2608744999999992E-2</v>
+        <v>-1.8239259999999757E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="16"/>
+        <v>3.4223334999999855E-3</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="17"/>
+        <v>8.6685930000000022E-3</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="18"/>
+        <v>1.3914852500000019E-2</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="19"/>
+        <v>1.916111199999998E-2</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="20"/>
+        <v>2.4407371499999997E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="21"/>
+        <v>2.9653630999999958E-2</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="22"/>
+        <v>3.489989050000003E-2</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="23"/>
+        <v>4.0146149999999992E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <f t="shared" si="14"/>
         <v>11</v>
@@ -17024,10 +18938,42 @@
       </c>
       <c r="P34">
         <f t="shared" si="15"/>
-        <v>9.6351629999999966E-2</v>
+        <v>1.8301739999999622E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="16"/>
+        <v>7.0813659999999778E-3</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="17"/>
+        <v>1.2332557999999993E-2</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="18"/>
+        <v>1.7583749999999954E-2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="19"/>
+        <v>2.2834941999999969E-2</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="20"/>
+        <v>2.8086133999999985E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="21"/>
+        <v>3.3337325999999945E-2</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="22"/>
+        <v>3.8588517999999961E-2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="23"/>
+        <v>4.3839709999999976E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <f t="shared" si="14"/>
         <v>12</v>
@@ -17090,10 +19036,42 @@
       </c>
       <c r="P35">
         <f t="shared" si="15"/>
-        <v>0.10334821500000002</v>
+        <v>1.748754000000019E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="16"/>
+        <v>7.3931684999999914E-3</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="17"/>
+        <v>1.3037583000000019E-2</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="18"/>
+        <v>1.8681997500000047E-2</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="19"/>
+        <v>2.4326412000000019E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="20"/>
+        <v>2.9970826500000047E-2</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="21"/>
+        <v>3.561524100000002E-2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="22"/>
+        <v>4.1259655500000048E-2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="23"/>
+        <v>4.690407000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <f t="shared" si="14"/>
         <v>13</v>
@@ -17156,10 +19134,42 @@
       </c>
       <c r="P36">
         <f t="shared" si="15"/>
-        <v>0.11434841499999998</v>
+        <v>4.3441419999999953E-3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="16"/>
+        <v>1.0455490499999998E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="17"/>
+        <v>1.6566839E-2</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="18"/>
+        <v>2.2678187500000002E-2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="19"/>
+        <v>2.8789536000000004E-2</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="20"/>
+        <v>3.4900884500000007E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="21"/>
+        <v>4.1012233000000009E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="22"/>
+        <v>4.7123581500000011E-2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="23"/>
+        <v>5.3234930000000014E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <f t="shared" si="14"/>
         <v>14</v>
@@ -17222,10 +19232,42 @@
       </c>
       <c r="P37">
         <f t="shared" si="15"/>
-        <v>0.12356870999999997</v>
+        <v>5.485596000000037E-3</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="16"/>
+        <v>1.2045768999999984E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="17"/>
+        <v>1.8605942000000042E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="18"/>
+        <v>2.5166114999999989E-2</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="19"/>
+        <v>3.1726287999999991E-2</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="20"/>
+        <v>3.8286460999999994E-2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="21"/>
+        <v>4.4846633999999996E-2</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="22"/>
+        <v>5.1406806999999999E-2</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="23"/>
+        <v>5.7966980000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>55</v>
       </c>
@@ -17244,7 +19286,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" t="s">
@@ -17287,7 +19329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
@@ -17332,701 +19374,701 @@
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49">
-        <f t="shared" ref="C49:C62" si="16">C4*0.0254</f>
+        <f t="shared" ref="C49:C62" si="24">C4*0.0254</f>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D62" si="17">D4*6894.76</f>
+        <f t="shared" ref="D49:D62" si="25">D4*6894.76</f>
         <v>99186.524644460005</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E62" si="18">E4*0.555556</f>
+        <f t="shared" ref="E49:E62" si="26">E4*0.555556</f>
         <v>296.65023732000003</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F62" si="19">F4*515.379</f>
+        <f t="shared" ref="F49:F62" si="27">F4*515.379</f>
         <v>1.1651688432</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" ref="G49:G62" si="20">G4*157.087</f>
+        <f t="shared" ref="G49:G62" si="28">G4*157.087</f>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I62" si="21">I4/180*PI()</f>
+        <f t="shared" ref="I49:I62" si="29">I4/180*PI()</f>
         <v>-7.1050681823265752E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J62" si="22">J4*6894.76</f>
+        <f t="shared" ref="J49:J62" si="30">J4*6894.76</f>
         <v>83.418184392800001</v>
       </c>
       <c r="K49">
-        <f t="shared" ref="K49:K62" si="23">K4*0.3048</f>
+        <f t="shared" ref="K49:K62" si="31">K4*0.3048</f>
         <v>11.96605797792</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:L62" si="24">L4</f>
+        <f t="shared" ref="L49:L62" si="32">L4</f>
         <v>48376.863299999997</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49:N62" si="25">M4*4.44822</f>
+        <f t="shared" ref="M49:N62" si="33">M4*4.44822</f>
         <v>-0.13627566792000001</v>
       </c>
       <c r="N49">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>-0.14662889997</v>
       </c>
       <c r="O49">
-        <f t="shared" ref="O49:O62" si="26">O4*0.1129848333</f>
+        <f t="shared" ref="O49:O62" si="34">O4*0.1129848333</f>
         <v>-7.3868467148040301E-3</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-3.4503115531373814E-2</v>
       </c>
       <c r="J50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>85.712691573200004</v>
       </c>
       <c r="K50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.129509629680001</v>
       </c>
       <c r="L50">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49037.671900000001</v>
       </c>
       <c r="M50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>-7.5195379812000002E-2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>-8.0677810961999996E-2</v>
       </c>
       <c r="O50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>-3.06888274361127E-3</v>
       </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>-5.9348350417740383E-4</v>
       </c>
       <c r="J51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>86.146923557999997</v>
       </c>
       <c r="K51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.160196131680001</v>
       </c>
       <c r="L51">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49161.730499999998</v>
       </c>
       <c r="M51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>-3.6161359668E-2</v>
       </c>
       <c r="N51">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>-8.610864276E-3</v>
       </c>
       <c r="O51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1.7470720489862371E-3</v>
       </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3.5238326577597234E-2</v>
       </c>
       <c r="J52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>84.706608194000012</v>
       </c>
       <c r="K52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.058110504</v>
       </c>
       <c r="L52">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48749.015599999999</v>
       </c>
       <c r="M52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>1.8839234790600002E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>8.298359028119999E-2</v>
       </c>
       <c r="O52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>7.4044644398604982E-3</v>
       </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>7.0328895326049884E-2</v>
       </c>
       <c r="J53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>84.459637890799996</v>
       </c>
       <c r="K53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.040519703519999</v>
       </c>
       <c r="L53">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48677.898399999998</v>
       </c>
       <c r="M53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>7.662374773620001E-2</v>
       </c>
       <c r="N53">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.16028511329880002</v>
       </c>
       <c r="O53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1.3299461675467996E-2</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D54">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.10349776354200764</v>
       </c>
       <c r="J54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>84.277960964800002</v>
       </c>
       <c r="K54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.027564697679999</v>
       </c>
       <c r="L54">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48625.523399999998</v>
       </c>
       <c r="M54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.12544340705820001</v>
       </c>
       <c r="N54">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.25139822596979999</v>
       </c>
       <c r="O54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>1.9113073675952837E-2</v>
       </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D55">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I55">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.13963874159654643</v>
       </c>
       <c r="J55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>83.971626778000001</v>
       </c>
       <c r="K55">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.005688104399999</v>
       </c>
       <c r="L55">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48537.078099999999</v>
       </c>
       <c r="M55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.1576609748742</v>
       </c>
       <c r="N55">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.32105245812779998</v>
       </c>
       <c r="O55">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>2.3198240307069278E-2</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I56">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.17501442139748538</v>
       </c>
       <c r="J56">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>85.500677703199997</v>
       </c>
       <c r="K56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.114497742000001</v>
       </c>
       <c r="L56">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48976.980499999998</v>
       </c>
       <c r="M56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.23616240523679999</v>
       </c>
       <c r="N56">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.38607168952800003</v>
       </c>
       <c r="O56">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>2.6919996871117933E-2</v>
       </c>
     </row>
     <row r="57" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I57">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.20899098505616653</v>
       </c>
       <c r="J57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>86.537994345200005</v>
       </c>
       <c r="K57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.1877676996</v>
       </c>
       <c r="L57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49273.199200000003</v>
       </c>
       <c r="M57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.29173944452520001</v>
       </c>
       <c r="N57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.44104813015200006</v>
       </c>
       <c r="O57">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>2.943412295337787E-2</v>
       </c>
     </row>
     <row r="58" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D58">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G58" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I58">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.24536181407201374</v>
       </c>
       <c r="J58">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>87.571243078799995</v>
       </c>
       <c r="K58">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.260307447839999</v>
       </c>
       <c r="L58">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49566.464800000002</v>
       </c>
       <c r="M58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.36606937865400002</v>
       </c>
       <c r="N58">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.46673032866180003</v>
       </c>
       <c r="O58">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>3.102895923797569E-2</v>
       </c>
     </row>
     <row r="59" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G59" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I59">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.27920380237339065</v>
       </c>
       <c r="J59">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>85.607822273599993</v>
       </c>
       <c r="K59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.122087993520001</v>
       </c>
       <c r="L59">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49007.664100000002</v>
       </c>
       <c r="M59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.40980699110820001</v>
       </c>
       <c r="N59">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.46716914556479999</v>
       </c>
       <c r="O59">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>3.0645080838507276E-2</v>
       </c>
     </row>
     <row r="60" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D60">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G60" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.31345285207088092</v>
       </c>
       <c r="J60">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>84.517484927200002</v>
       </c>
       <c r="K60">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.044643891360002</v>
       </c>
       <c r="L60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>48694.570299999999</v>
       </c>
       <c r="M60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.4638061577982</v>
       </c>
       <c r="N60">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.50215194934380003</v>
       </c>
       <c r="O60">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>3.2964545351474639E-2</v>
       </c>
     </row>
     <row r="61" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.34914317895670477</v>
       </c>
       <c r="J61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>87.631985914400005</v>
       </c>
       <c r="K61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.264563004480001</v>
       </c>
       <c r="L61">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49583.667999999998</v>
       </c>
       <c r="M61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.52808258094060001</v>
       </c>
       <c r="N61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.54369245249340004</v>
       </c>
       <c r="O61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>3.5414641798855138E-2</v>
       </c>
     </row>
     <row r="62" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>99186.524644460005</v>
       </c>
       <c r="E62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>296.65023732000003</v>
       </c>
       <c r="F62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>1.1651688432</v>
       </c>
       <c r="G62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.384582216827485</v>
       </c>
       <c r="J62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>87.180999662800005</v>
       </c>
       <c r="K62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>12.23296377888</v>
       </c>
       <c r="L62">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>49455.917999999998</v>
       </c>
       <c r="M62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.60611165482139995</v>
       </c>
       <c r="N62">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>0.58362185484119999</v>
       </c>
       <c r="O62">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>3.7922613597245219E-2</v>
       </c>
     </row>
@@ -18042,10 +20084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC9146-1D19-EA45-93B1-07300A05A5AC}">
-  <dimension ref="A1:AB56"/>
+  <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18059,7 +20101,7 @@
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18106,7 +20148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -18156,48 +20198,33 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="P3">
-        <v>1.8</v>
-      </c>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="Q3">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="U3">
-        <v>2.0499999999999998</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="V3">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W3">
-        <v>2.15</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="X3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Y3">
-        <v>2.25</v>
-      </c>
-      <c r="Z3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AA3">
-        <v>2.35</v>
-      </c>
-      <c r="AB3">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18243,60 +20270,40 @@
       <c r="O4">
         <v>-0.56586550000000002</v>
       </c>
-      <c r="P4">
-        <f>1.8*N4 - O4</f>
-        <v>0.11741277999999999</v>
-      </c>
       <c r="Q4">
-        <f>1.85*N4 - O4</f>
-        <v>0.10495575999999995</v>
-      </c>
-      <c r="R4">
-        <f>1.9*N4-O4</f>
-        <v>9.2498740000000024E-2</v>
-      </c>
-      <c r="S4">
-        <f>1.95*N4-O4</f>
-        <v>8.0041719999999983E-2</v>
-      </c>
-      <c r="T4">
-        <f>2*N4-O4</f>
-        <v>6.7584699999999998E-2</v>
-      </c>
-      <c r="U4">
-        <f>2.05*N4-O4</f>
-        <v>5.5127680000000012E-2</v>
-      </c>
-      <c r="V4">
-        <f>2.1*N4-O4</f>
-        <v>4.2670659999999971E-2</v>
-      </c>
-      <c r="W4">
-        <f>2.15*N4-O4</f>
-        <v>3.0213640000000042E-2</v>
-      </c>
-      <c r="X4">
-        <f>2.2*N4-O4</f>
-        <v>1.7756620000000001E-2</v>
-      </c>
-      <c r="Y4">
         <f>2.25*N4-O4</f>
         <v>5.2995999999999599E-3</v>
       </c>
-      <c r="Z4">
+      <c r="R4">
         <f>2.3*N4-O4</f>
         <v>-7.1574199999999699E-3</v>
       </c>
-      <c r="AA4">
+      <c r="S4">
         <f>2.35*N4-O4</f>
         <v>-1.9614440000000011E-2</v>
       </c>
-      <c r="AB4">
+      <c r="T4">
         <f>2.4*N4-O4</f>
         <v>-3.2071459999999941E-2</v>
       </c>
+      <c r="U4">
+        <f>2.45*N4-O4</f>
+        <v>-4.4528480000000092E-2</v>
+      </c>
+      <c r="V4">
+        <f>2.5*N4-O4</f>
+        <v>-5.6985500000000022E-2</v>
+      </c>
+      <c r="W4">
+        <f>2.55*N4-O4</f>
+        <v>-6.9442519999999952E-2</v>
+      </c>
+      <c r="X4">
+        <f>2.6*N4-O4</f>
+        <v>-8.1899539999999993E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18342,60 +20349,40 @@
       <c r="O5">
         <v>-0.3051548</v>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P17" si="0">1.8*N5 - O5</f>
-        <v>5.066594000000002E-2</v>
-      </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q17" si="1">1.85*N5 - O5</f>
-        <v>4.3596805000000016E-2</v>
+        <f t="shared" ref="Q5:Q17" si="0">2.25*N5-O5</f>
+        <v>-1.2956275000000017E-2</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R17" si="2">1.9*N5-O5</f>
-        <v>3.6527670000000012E-2</v>
+        <f t="shared" ref="R5:R17" si="1">2.3*N5-O5</f>
+        <v>-2.0025409999999966E-2</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S17" si="3">1.95*N5-O5</f>
-        <v>2.9458535000000008E-2</v>
+        <f t="shared" ref="S5:S17" si="2">2.35*N5-O5</f>
+        <v>-2.7094545000000025E-2</v>
       </c>
       <c r="T5">
-        <f t="shared" ref="T5:T17" si="4">2*N5-O5</f>
-        <v>2.2389400000000004E-2</v>
+        <f t="shared" ref="T5:T17" si="3">2.4*N5-O5</f>
+        <v>-3.4163679999999974E-2</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="U5:U17" si="5">2.05*N5-O5</f>
-        <v>1.5320265000000055E-2</v>
+        <f t="shared" ref="U5:U17" si="4">2.45*N5-O5</f>
+        <v>-4.1232815000000034E-2</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V17" si="6">2.1*N5-O5</f>
-        <v>8.2511299999999954E-3</v>
+        <f t="shared" ref="V5:V17" si="5">2.5*N5-O5</f>
+        <v>-4.8301949999999982E-2</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W17" si="7">2.15*N5-O5</f>
-        <v>1.1819949999999912E-3</v>
+        <f t="shared" ref="W5:W17" si="6">2.55*N5-O5</f>
+        <v>-5.5371084999999987E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" ref="X5:X17" si="8">2.2*N5-O5</f>
-        <v>-5.8871400000000129E-3</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y17" si="9">2.25*N5-O5</f>
-        <v>-1.2956275000000017E-2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z17" si="10">2.3*N5-O5</f>
-        <v>-2.0025409999999966E-2</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA17" si="11">2.35*N5-O5</f>
-        <v>-2.7094545000000025E-2</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AB17" si="12">2.4*N5-O5</f>
-        <v>-3.4163679999999974E-2</v>
+        <f t="shared" ref="X5:X17" si="7">2.6*N5-O5</f>
+        <v>-6.2440219999999991E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18441,60 +20428,40 @@
       <c r="O6">
         <v>-1.38903E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>-2.7265619999999997E-2</v>
-      </c>
-      <c r="Q6">
+        <v>-3.75546E-2</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="1"/>
-        <v>-2.8408839999999998E-2</v>
-      </c>
-      <c r="R6">
+        <v>-3.8697819999999994E-2</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="2"/>
-        <v>-2.9552059999999998E-2</v>
-      </c>
-      <c r="S6">
+        <v>-3.9841040000000001E-2</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="3"/>
-        <v>-3.0695279999999998E-2</v>
-      </c>
-      <c r="T6">
+        <v>-4.0984259999999995E-2</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="4"/>
-        <v>-3.1838499999999999E-2</v>
-      </c>
-      <c r="U6">
+        <v>-4.2127480000000002E-2</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="5"/>
-        <v>-3.2981719999999992E-2</v>
-      </c>
-      <c r="V6">
+        <v>-4.3270700000000002E-2</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="6"/>
-        <v>-3.4124939999999999E-2</v>
-      </c>
-      <c r="W6">
+        <v>-4.4413919999999996E-2</v>
+      </c>
+      <c r="X6">
         <f t="shared" si="7"/>
-        <v>-3.526816E-2</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="8"/>
-        <v>-3.641138E-2</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="9"/>
-        <v>-3.75546E-2</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="10"/>
-        <v>-3.8697819999999994E-2</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="11"/>
-        <v>-3.9841040000000001E-2</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="12"/>
-        <v>-4.0984259999999995E-2</v>
+        <v>-4.5557140000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18540,60 +20507,40 @@
       <c r="O7">
         <v>0.23211644000000001</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>-9.3850718000000027E-2</v>
-      </c>
-      <c r="Q7">
+        <v>-5.9284287500000032E-2</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="1"/>
-        <v>-9.0010003500000019E-2</v>
-      </c>
-      <c r="R7">
+        <v>-5.5443573000000024E-2</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="2"/>
-        <v>-8.6169289000000038E-2</v>
-      </c>
-      <c r="S7">
+        <v>-5.1602858500000015E-2</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="3"/>
-        <v>-8.2328574500000029E-2</v>
-      </c>
-      <c r="T7">
+        <v>-4.7762144000000034E-2</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="4"/>
-        <v>-7.848786000000002E-2</v>
-      </c>
-      <c r="U7">
+        <v>-4.3921429499999998E-2</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="5"/>
-        <v>-7.4647145500000039E-2</v>
-      </c>
-      <c r="V7">
+        <v>-4.0080715000000017E-2</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="6"/>
-        <v>-7.0806431000000003E-2</v>
-      </c>
-      <c r="W7">
+        <v>-3.6240000500000036E-2</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="7"/>
-        <v>-6.6965716500000022E-2</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="8"/>
-        <v>-6.3125002000000013E-2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="9"/>
-        <v>-5.9284287500000032E-2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="10"/>
-        <v>-5.5443573000000024E-2</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="11"/>
-        <v>-5.1602858500000015E-2</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="12"/>
-        <v>-4.7762144000000034E-2</v>
+        <v>-3.2399286000000027E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18639,60 +20586,40 @@
       <c r="O8">
         <v>0.55116306000000004</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>-0.17914404600000006</v>
-      </c>
-      <c r="Q8">
+        <v>-8.6139292500000075E-2</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="1"/>
-        <v>-0.16881018450000002</v>
-      </c>
-      <c r="R8">
+        <v>-7.580543100000009E-2</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="2"/>
-        <v>-0.15847632300000009</v>
-      </c>
-      <c r="S8">
+        <v>-6.5471569500000049E-2</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="3"/>
-        <v>-0.14814246150000004</v>
-      </c>
-      <c r="T8">
+        <v>-5.5137708000000063E-2</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="4"/>
-        <v>-0.13780860000000006</v>
-      </c>
-      <c r="U8">
+        <v>-4.4803846500000022E-2</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="5"/>
-        <v>-0.12747473850000007</v>
-      </c>
-      <c r="V8">
+        <v>-3.4469985000000092E-2</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="6"/>
-        <v>-0.11714087700000003</v>
-      </c>
-      <c r="W8">
+        <v>-2.4136123500000051E-2</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="7"/>
-        <v>-0.1068070155000001</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="8"/>
-        <v>-9.6473154000000005E-2</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="9"/>
-        <v>-8.6139292500000075E-2</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="10"/>
-        <v>-7.580543100000009E-2</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="11"/>
-        <v>-6.5471569500000049E-2</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="12"/>
-        <v>-5.5137708000000063E-2</v>
+        <v>-1.380226200000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18738,60 +20665,40 @@
       <c r="O9">
         <v>0.83031124000000001</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>-0.23734350400000004</v>
-      </c>
-      <c r="Q9">
+        <v>-8.9101569999999963E-2</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="1"/>
-        <v>-0.22087217800000003</v>
-      </c>
-      <c r="R9">
+        <v>-7.2630244000000066E-2</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="2"/>
-        <v>-0.20440085200000002</v>
-      </c>
-      <c r="S9">
+        <v>-5.6158917999999947E-2</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="3"/>
-        <v>-0.18792952600000001</v>
-      </c>
-      <c r="T9">
+        <v>-3.9687592000000049E-2</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="4"/>
-        <v>-0.17145820000000001</v>
-      </c>
-      <c r="U9">
+        <v>-2.321626599999993E-2</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="5"/>
-        <v>-0.15498687400000011</v>
-      </c>
-      <c r="V9">
+        <v>-6.7449400000000326E-3</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="6"/>
-        <v>-0.13851554799999999</v>
-      </c>
-      <c r="W9">
+        <v>9.7263859999999758E-3</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="7"/>
-        <v>-0.12204422199999998</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="8"/>
-        <v>-0.10557289599999997</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="9"/>
-        <v>-8.9101569999999963E-2</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="10"/>
-        <v>-7.2630244000000066E-2</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="11"/>
-        <v>-5.6158917999999947E-2</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="12"/>
-        <v>-3.9687592000000049E-2</v>
+        <v>2.6197711999999984E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18837,60 +20744,40 @@
       <c r="O10">
         <v>1.11317887</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>-0.28981828000000009</v>
-      </c>
-      <c r="Q10">
+        <v>-8.3978132499999969E-2</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="1"/>
-        <v>-0.26694715250000001</v>
-      </c>
-      <c r="R10">
+        <v>-6.1107005000000214E-2</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="2"/>
-        <v>-0.24407602500000014</v>
-      </c>
-      <c r="S10">
+        <v>-3.8235877500000015E-2</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="3"/>
-        <v>-0.22120489750000005</v>
-      </c>
-      <c r="T10">
+        <v>-1.5364750000000038E-2</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="4"/>
-        <v>-0.19833377000000008</v>
-      </c>
-      <c r="U10">
+        <v>7.5063774999999389E-3</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="5"/>
-        <v>-0.17546264250000021</v>
-      </c>
-      <c r="V10">
+        <v>3.0377504999999916E-2</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="6"/>
-        <v>-0.15259151500000001</v>
-      </c>
-      <c r="W10">
+        <v>5.3248632499999893E-2</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="7"/>
-        <v>-0.12972038750000014</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="8"/>
-        <v>-0.10684925999999995</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="9"/>
-        <v>-8.3978132499999969E-2</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="10"/>
-        <v>-6.1107005000000214E-2</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="11"/>
-        <v>-3.8235877500000015E-2</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="12"/>
-        <v>-1.5364750000000038E-2</v>
+        <v>7.611975999999987E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18936,60 +20823,40 @@
       <c r="O11">
         <v>1.3204076499999999</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>-0.31749673599999984</v>
-      </c>
-      <c r="Q11">
+        <v>-6.6769007500000033E-2</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="1"/>
-        <v>-0.28963809949999986</v>
-      </c>
-      <c r="R11">
+        <v>-3.8910371000000055E-2</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="2"/>
-        <v>-0.26177946299999988</v>
-      </c>
-      <c r="S11">
+        <v>-1.1051734499999855E-2</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="3"/>
-        <v>-0.2339208264999999</v>
-      </c>
-      <c r="T11">
+        <v>1.6806902000000123E-2</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="4"/>
-        <v>-0.20606218999999992</v>
-      </c>
-      <c r="U11">
+        <v>4.4665538500000102E-2</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="5"/>
-        <v>-0.17820355349999994</v>
-      </c>
-      <c r="V11">
+        <v>7.252417500000008E-2</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="6"/>
-        <v>-0.15034491699999997</v>
-      </c>
-      <c r="W11">
+        <v>0.10038281150000006</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="7"/>
-        <v>-0.12248628049999999</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="8"/>
-        <v>-9.4627643999999789E-2</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="9"/>
-        <v>-6.6769007500000033E-2</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="10"/>
-        <v>-3.8910371000000055E-2</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="11"/>
-        <v>-1.1051734499999855E-2</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="12"/>
-        <v>1.6806902000000123E-2</v>
+        <v>0.12824144800000004</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -19035,60 +20902,40 @@
       <c r="O12">
         <v>1.35978076</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>-0.3100574439999999</v>
-      </c>
-      <c r="Q12">
+        <v>-4.7626614999999983E-2</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="1"/>
-        <v>-0.28089846299999999</v>
-      </c>
-      <c r="R12">
+        <v>-1.8467634000000066E-2</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="2"/>
-        <v>-0.25173948200000007</v>
-      </c>
-      <c r="S12">
+        <v>1.0691347000000073E-2</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="3"/>
-        <v>-0.22258050099999993</v>
-      </c>
-      <c r="T12">
+        <v>3.985032799999999E-2</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="4"/>
-        <v>-0.19342152000000001</v>
-      </c>
-      <c r="U12">
+        <v>6.900930900000013E-2</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="5"/>
-        <v>-0.1642625390000001</v>
-      </c>
-      <c r="V12">
+        <v>9.8168290000000047E-2</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="6"/>
-        <v>-0.13510355799999996</v>
-      </c>
-      <c r="W12">
+        <v>0.12732727099999996</v>
+      </c>
+      <c r="X12">
         <f t="shared" si="7"/>
-        <v>-0.10594457700000004</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="8"/>
-        <v>-7.67855959999999E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="9"/>
-        <v>-4.7626614999999983E-2</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="10"/>
-        <v>-1.8467634000000066E-2</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="11"/>
-        <v>1.0691347000000073E-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="12"/>
-        <v>3.985032799999999E-2</v>
+        <v>0.1564862520000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -19134,60 +20981,40 @@
       <c r="O13">
         <v>1.4109760899999999</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>-0.30411726399999983</v>
-      </c>
-      <c r="Q13">
+        <v>-2.7402557499999869E-2</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="1"/>
-        <v>-0.27337118549999984</v>
-      </c>
-      <c r="R13">
+        <v>3.343521000000127E-3</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="2"/>
-        <v>-0.24262510699999984</v>
-      </c>
-      <c r="S13">
+        <v>3.4089599500000123E-2</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="3"/>
-        <v>-0.21187902849999984</v>
-      </c>
-      <c r="T13">
+        <v>6.4835678000000119E-2</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="4"/>
-        <v>-0.18113294999999985</v>
-      </c>
-      <c r="U13">
+        <v>9.5581756500000337E-2</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="5"/>
-        <v>-0.15038687149999985</v>
-      </c>
-      <c r="V13">
+        <v>0.12632783500000011</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="6"/>
-        <v>-0.11964079299999986</v>
-      </c>
-      <c r="W13">
+        <v>0.15707391350000011</v>
+      </c>
+      <c r="X13">
         <f t="shared" si="7"/>
-        <v>-8.8894714499999861E-2</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="8"/>
-        <v>-5.8148635999999643E-2</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="9"/>
-        <v>-2.7402557499999869E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="10"/>
-        <v>3.343521000000127E-3</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="11"/>
-        <v>3.4089599500000123E-2</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="12"/>
-        <v>6.4835678000000119E-2</v>
+        <v>0.18781999200000032</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -19233,60 +21060,40 @@
       <c r="O14">
         <v>1.4513096700000001</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>-0.30582640800000016</v>
-      </c>
-      <c r="Q14">
+        <v>-1.9455592500000174E-2</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="1"/>
-        <v>-0.27400742850000004</v>
-      </c>
-      <c r="R14">
+        <v>1.2363386999999726E-2</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="2"/>
-        <v>-0.24218844900000014</v>
-      </c>
-      <c r="S14">
+        <v>4.4182366499999848E-2</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="3"/>
-        <v>-0.21036946950000024</v>
-      </c>
-      <c r="T14">
+        <v>7.6001345999999748E-2</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="4"/>
-        <v>-0.17855049000000012</v>
-      </c>
-      <c r="U14">
+        <v>0.10782032550000009</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="5"/>
-        <v>-0.14673151050000022</v>
-      </c>
-      <c r="V14">
+        <v>0.13963930499999977</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="6"/>
-        <v>-0.1149125310000001</v>
-      </c>
-      <c r="W14">
+        <v>0.17145828449999967</v>
+      </c>
+      <c r="X14">
         <f t="shared" si="7"/>
-        <v>-8.3093551500000196E-2</v>
-      </c>
-      <c r="X14">
-        <f t="shared" si="8"/>
-        <v>-5.1274572000000074E-2</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="9"/>
-        <v>-1.9455592500000174E-2</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="10"/>
-        <v>1.2363386999999726E-2</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="11"/>
-        <v>4.4182366499999848E-2</v>
-      </c>
-      <c r="AB14">
-        <f t="shared" si="12"/>
-        <v>7.6001345999999748E-2</v>
+        <v>0.20327726400000001</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -19332,60 +21139,40 @@
       <c r="O15">
         <v>1.4751724900000001</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>-0.31564471000000016</v>
-      </c>
-      <c r="Q15">
+        <v>-2.5762765000000076E-2</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="1"/>
-        <v>-0.28343560499999998</v>
-      </c>
-      <c r="R15">
+        <v>6.4463399999998838E-3</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="2"/>
-        <v>-0.25122650000000024</v>
-      </c>
-      <c r="S15">
+        <v>3.8655444999999844E-2</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="3"/>
-        <v>-0.21901739500000006</v>
-      </c>
-      <c r="T15">
+        <v>7.0864549999999804E-2</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="4"/>
-        <v>-0.1868082900000001</v>
-      </c>
-      <c r="U15">
+        <v>0.10307365499999999</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="5"/>
-        <v>-0.15459918500000014</v>
-      </c>
-      <c r="V15">
+        <v>0.13528275999999995</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="6"/>
-        <v>-0.12239007999999996</v>
-      </c>
-      <c r="W15">
+        <v>0.16749186499999968</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="7"/>
-        <v>-9.0180975000000219E-2</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="8"/>
-        <v>-5.7971870000000036E-2</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="9"/>
-        <v>-2.5762765000000076E-2</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="10"/>
-        <v>6.4463399999998838E-3</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="11"/>
-        <v>3.8655444999999844E-2</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" si="12"/>
-        <v>7.0864549999999804E-2</v>
+        <v>0.19970096999999987</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -19431,60 +21218,40 @@
       <c r="O16">
         <v>1.52006793</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <f t="shared" si="0"/>
-        <v>-0.32901354599999988</v>
-      </c>
-      <c r="Q16">
+        <v>-3.124994999999986E-2</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="1"/>
-        <v>-0.29592870199999988</v>
-      </c>
-      <c r="R16">
+        <v>1.8348939999999203E-3</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="2"/>
-        <v>-0.26284385799999987</v>
-      </c>
-      <c r="S16">
+        <v>3.4919738000000144E-2</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="3"/>
-        <v>-0.22975901399999987</v>
-      </c>
-      <c r="T16">
+        <v>6.8004582000000147E-2</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="4"/>
-        <v>-0.19667416999999987</v>
-      </c>
-      <c r="U16">
+        <v>0.10108942600000037</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="5"/>
-        <v>-0.16358932600000009</v>
-      </c>
-      <c r="V16">
+        <v>0.13417427000000015</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="6"/>
-        <v>-0.13050448199999987</v>
-      </c>
-      <c r="W16">
+        <v>0.16725911399999993</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="7"/>
-        <v>-9.7419637999999864E-2</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="8"/>
-        <v>-6.433479399999964E-2</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="9"/>
-        <v>-3.124994999999986E-2</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="10"/>
-        <v>1.8348939999999203E-3</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="11"/>
-        <v>3.4919738000000144E-2</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="12"/>
-        <v>6.8004582000000147E-2</v>
+        <v>0.20034395800000016</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -19530,60 +21297,40 @@
       <c r="O17">
         <v>1.6252724599999999</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>-0.34750113199999988</v>
-      </c>
-      <c r="Q17">
+        <v>-2.8058299999999869E-2</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="1"/>
-        <v>-0.31200748399999978</v>
-      </c>
-      <c r="R17">
+        <v>7.4353480000000083E-3</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="2"/>
-        <v>-0.2765138359999999</v>
-      </c>
-      <c r="S17">
+        <v>4.2928996000000108E-2</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="3"/>
-        <v>-0.24102018800000002</v>
-      </c>
-      <c r="T17">
+        <v>7.8422643999999986E-2</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="4"/>
-        <v>-0.20552653999999992</v>
-      </c>
-      <c r="U17">
+        <v>0.11391629200000031</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="5"/>
-        <v>-0.17003289200000005</v>
-      </c>
-      <c r="V17">
+        <v>0.14940994000000019</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="6"/>
-        <v>-0.13453924399999995</v>
-      </c>
-      <c r="W17">
+        <v>0.18490358799999984</v>
+      </c>
+      <c r="X17">
         <f t="shared" si="7"/>
-        <v>-9.9045596000000069E-2</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="8"/>
-        <v>-6.3551947999999747E-2</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="9"/>
-        <v>-2.8058299999999869E-2</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="10"/>
-        <v>7.4353480000000083E-3</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="11"/>
-        <v>4.2928996000000108E-2</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="12"/>
-        <v>7.8422643999999986E-2</v>
+        <v>0.22039723600000016</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>65</v>
       </c>
@@ -19602,131 +21349,131 @@
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="str">
         <f>A1</f>
         <v>Data Point</v>
       </c>
       <c r="B21" s="10" t="str">
-        <f t="shared" ref="B21:L21" si="13">B1</f>
+        <f t="shared" ref="B21:L21" si="8">B1</f>
         <v> Corr Factor</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Length Scale</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> AmbPress</v>
       </c>
       <c r="E21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> AmbTemp</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Density</v>
       </c>
       <c r="G21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Viscosity</v>
       </c>
       <c r="H21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Motor Speed</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Angle of Attack</v>
       </c>
       <c r="J21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Corrected q</v>
       </c>
       <c r="K21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Avg Velocity</v>
       </c>
       <c r="L21" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v> Reynolds number</v>
       </c>
       <c r="M21" s="10" t="str">
-        <f t="shared" ref="M21:O21" si="14">M1</f>
+        <f t="shared" ref="M21:O21" si="9">M1</f>
         <v> Axial Force</v>
       </c>
       <c r="N21" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>Normal Force</v>
       </c>
       <c r="O21" s="10" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v> Pitching Mom</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="str">
-        <f t="shared" ref="A22:L22" si="15">A2</f>
+        <f t="shared" ref="A22:L22" si="10">A2</f>
         <v>#</v>
       </c>
       <c r="B22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> ND</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [in]</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [psia]</v>
       </c>
       <c r="E22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [R]</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [slug/ft3]</v>
       </c>
       <c r="G22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [slug/ft s]</v>
       </c>
       <c r="H22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [RPM]</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [deg]</v>
       </c>
       <c r="J22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [dpsi]</v>
       </c>
       <c r="K22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> [ft/s]</v>
       </c>
       <c r="L22" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v> ND</v>
       </c>
       <c r="M22" s="10" t="str">
-        <f t="shared" ref="M22:O22" si="16">M2</f>
+        <f t="shared" ref="M22:O22" si="11">M2</f>
         <v> [Lbf]</v>
       </c>
       <c r="N22" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v> [Lbf]</v>
       </c>
       <c r="O22" s="10" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v> [in-Lbf]</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -19743,53 +21490,53 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <f t="shared" ref="A24:L24" si="17">A4</f>
+        <f t="shared" ref="A24:L24" si="12">A4</f>
         <v>1</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0.95</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="D24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>533.97</v>
       </c>
       <c r="F24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>-3.9458688</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>7.8531359999999995E-2</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>100.020004</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>123250.42200000001</v>
       </c>
       <c r="M24" s="10">
@@ -19805,53 +21552,53 @@
         <v>-9.5789892000000043E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <f t="shared" ref="A25:L25" si="18">A5</f>
+        <f t="shared" ref="A25:L25" si="13">A5</f>
         <v>2</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0.95</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="D25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>533.97</v>
       </c>
       <c r="F25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-2.0466473000000001</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>7.8932520000000006E-2</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>100.275139</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>123564.81299999999</v>
       </c>
       <c r="M25" s="10">
@@ -19867,53 +21614,53 @@
         <v>0.16270545999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <f t="shared" ref="A26:L26" si="19">A6</f>
+        <f t="shared" ref="A26:L26" si="14">A6</f>
         <v>3</v>
       </c>
       <c r="B26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.5</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>533.97</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>-3.3471899999999999E-2</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>7.8225030000000001E-2</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>99.824737600000006</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>123009.80499999999</v>
       </c>
       <c r="M26" s="10">
@@ -19929,53 +21676,53 @@
         <v>0.45117903199999998</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <f t="shared" ref="A27:L27" si="20">A7</f>
+        <f t="shared" ref="A27:L27" si="15">A7</f>
         <v>4</v>
       </c>
       <c r="B27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0.95</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.5</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>533.97</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>1.9196833099999999</v>
       </c>
       <c r="J27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>7.8754640000000001E-2</v>
       </c>
       <c r="K27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>100.162087</v>
       </c>
       <c r="L27" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>123425.508</v>
       </c>
       <c r="M27" s="10">
@@ -19991,53 +21738,53 @@
         <v>0.69504576799999995</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <f t="shared" ref="A28:L28" si="21">A8</f>
+        <f t="shared" ref="A28:L28" si="16">A8</f>
         <v>5</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0.95</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2.5</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>533.97</v>
       </c>
       <c r="F28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>4.0854886199999996</v>
       </c>
       <c r="J28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>7.8460299999999997E-2</v>
       </c>
       <c r="K28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>99.974739099999994</v>
       </c>
       <c r="L28" s="10">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>123194.641</v>
       </c>
       <c r="M28" s="10">
@@ -20053,53 +21800,53 @@
         <v>1.012504523</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <f t="shared" ref="A29:L29" si="22">A9</f>
+        <f t="shared" ref="A29:L29" si="17">A9</f>
         <v>6</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0.95</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2.5</v>
       </c>
       <c r="D29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>533.97</v>
       </c>
       <c r="F29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>5.94443739</v>
       </c>
       <c r="J29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>7.3777709999999996E-2</v>
       </c>
       <c r="K29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>96.945556600000003</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>119461.914</v>
       </c>
       <c r="M29" s="10">
@@ -20115,53 +21862,53 @@
         <v>1.2882848410000001</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
-        <f t="shared" ref="A30:L30" si="23">A10</f>
+        <f t="shared" ref="A30:L30" si="18">A10</f>
         <v>7</v>
       </c>
       <c r="B30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0.95</v>
       </c>
       <c r="C30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.5</v>
       </c>
       <c r="D30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>533.97</v>
       </c>
       <c r="F30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>7.9381382900000004</v>
       </c>
       <c r="J30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>7.7833059999999996E-2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>99.574317899999997</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>122701.219</v>
       </c>
       <c r="M30" s="10">
@@ -20177,53 +21924,53 @@
         <v>1.5676973510000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <f t="shared" ref="A31:L31" si="24">A11</f>
+        <f t="shared" ref="A31:L31" si="19">A11</f>
         <v>8</v>
       </c>
       <c r="B31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0.95</v>
       </c>
       <c r="C31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="D31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>533.97</v>
       </c>
       <c r="F31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>10.0329374</v>
       </c>
       <c r="J31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>8.0087720000000001E-2</v>
       </c>
       <c r="K31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>101.00625599999999</v>
       </c>
       <c r="L31" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>124465.742</v>
       </c>
       <c r="M31" s="10">
@@ -20239,53 +21986,53 @@
         <v>1.7712778459999998</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <f t="shared" ref="A32:L32" si="25">A12</f>
+        <f t="shared" ref="A32:L32" si="20">A12</f>
         <v>9</v>
       </c>
       <c r="B32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0.95</v>
       </c>
       <c r="C32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>2.5</v>
       </c>
       <c r="D32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>533.97</v>
       </c>
       <c r="F32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>11.979269</v>
       </c>
       <c r="J32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>7.8307550000000004E-2</v>
       </c>
       <c r="K32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>99.877372699999995</v>
       </c>
       <c r="L32" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>123074.664</v>
       </c>
       <c r="M32" s="10">
@@ -20303,51 +22050,51 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <f t="shared" ref="A33:L33" si="26">A13</f>
+        <f t="shared" ref="A33:L33" si="21">A13</f>
         <v>10</v>
       </c>
       <c r="B33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0.95</v>
       </c>
       <c r="C33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>2.5</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>533.97</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>13.9203873</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>7.9298359999999998E-2</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>100.507256</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>123850.844</v>
       </c>
       <c r="M33" s="10">
@@ -20365,51 +22112,51 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <f t="shared" ref="A34:L34" si="27">A14</f>
+        <f t="shared" ref="A34:L34" si="22">A14</f>
         <v>11</v>
       </c>
       <c r="B34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0.95</v>
       </c>
       <c r="C34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>2.5</v>
       </c>
       <c r="D34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>533.97</v>
       </c>
       <c r="F34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>15.9829109</v>
       </c>
       <c r="J34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>8.2301849999999996E-2</v>
       </c>
       <c r="K34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>102.39296</v>
       </c>
       <c r="L34" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>126174.516</v>
       </c>
       <c r="M34" s="10">
@@ -20431,47 +22178,47 @@
         <v>12</v>
       </c>
       <c r="B35" s="10">
-        <f t="shared" ref="B35:L35" si="28">B15</f>
+        <f t="shared" ref="B35:L35" si="23">B15</f>
         <v>0.95</v>
       </c>
       <c r="C35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>2.5</v>
       </c>
       <c r="D35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>533.97</v>
       </c>
       <c r="F35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>17.913944000000001</v>
       </c>
       <c r="J35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>7.9200019999999996E-2</v>
       </c>
       <c r="K35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>100.44491600000001</v>
       </c>
       <c r="L35" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>123774.023</v>
       </c>
       <c r="M35" s="10">
@@ -20489,51 +22236,51 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <f t="shared" ref="A36:L36" si="29">A16</f>
+        <f t="shared" ref="A36:L36" si="24">A16</f>
         <v>13</v>
       </c>
       <c r="B36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0.95</v>
       </c>
       <c r="C36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>2.5</v>
       </c>
       <c r="D36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>533.97</v>
       </c>
       <c r="F36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>20.051144799999999</v>
       </c>
       <c r="J36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>7.8955940000000002E-2</v>
       </c>
       <c r="K36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>100.29001599999999</v>
       </c>
       <c r="L36" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>123583.148</v>
       </c>
       <c r="M36" s="10">
@@ -20551,51 +22298,51 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <f t="shared" ref="A37:L37" si="30">A17</f>
+        <f t="shared" ref="A37:L37" si="25">A17</f>
         <v>14</v>
       </c>
       <c r="B37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0.95</v>
       </c>
       <c r="C37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="D37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>14.385783500000001</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>533.97</v>
       </c>
       <c r="F37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>2.2607999999999999E-3</v>
       </c>
       <c r="G37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>3.8200000000000001E-7</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>22.044026899999999</v>
       </c>
       <c r="J37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>7.7786690000000006E-2</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>99.544654899999998</v>
       </c>
       <c r="L37" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>122664.67200000001</v>
       </c>
       <c r="M37" s="10">
@@ -20718,701 +22465,701 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C43">
-        <f t="shared" ref="C43:C56" si="31">C4*0.0254</f>
+        <f t="shared" ref="C43:C56" si="26">C4*0.0254</f>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43:D56" si="32">D4*6894.76</f>
+        <f t="shared" ref="D43:D56" si="27">D4*6894.76</f>
         <v>99186.524644460005</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43:E56" si="33">E4*0.555556</f>
+        <f t="shared" ref="E43:E56" si="28">E4*0.555556</f>
         <v>296.65023732000003</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43:F56" si="34">F4*515.379</f>
+        <f t="shared" ref="F43:F56" si="29">F4*515.379</f>
         <v>1.1651688432</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" ref="G43:G56" si="35">G4*157.087</f>
+        <f t="shared" ref="G43:G56" si="30">G4*157.087</f>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43:I56" si="36">I4/180*PI()</f>
+        <f t="shared" ref="I43:I56" si="31">I4/180*PI()</f>
         <v>-6.8868402411717627E-2</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43:J56" si="37">J4*6894.76</f>
+        <f t="shared" ref="J43:J56" si="32">J4*6894.76</f>
         <v>541.45487967359998</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43:K56" si="38">K4*0.3048</f>
+        <f t="shared" ref="K43:K56" si="33">K4*0.3048</f>
         <v>30.486097219200001</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43:L56" si="39">L4</f>
+        <f t="shared" ref="L43:L56" si="34">L4</f>
         <v>123250.42200000001</v>
       </c>
       <c r="M43">
-        <f t="shared" ref="M43:N56" si="40">M4*4.44822</f>
+        <f t="shared" ref="M43:N56" si="35">M4*4.44822</f>
         <v>-1.1078736731999999E-2</v>
       </c>
       <c r="N43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>-1.1082313100880001</v>
       </c>
       <c r="O43">
-        <f t="shared" ref="O43:O56" si="41">O4*0.1129848333</f>
+        <f t="shared" ref="O43:O56" si="36">O4*0.1129848333</f>
         <v>-6.3934219187721159E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C44">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D44">
+        <v>-3.5720734012052141E-2</v>
+      </c>
+      <c r="J44">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E44">
+        <v>544.22078159520004</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F44">
+        <v>30.563862367199999</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G44" s="1">
+        <v>123564.81299999999</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I44">
+        <v>9.3598733524799999E-2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="35"/>
+        <v>-0.62890135379400003</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="36"/>
-        <v>-3.5720734012052141E-2</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="37"/>
-        <v>544.22078159520004</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="38"/>
-        <v>30.563862367199999</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="39"/>
-        <v>123564.81299999999</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="40"/>
-        <v>9.3598733524799999E-2</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="40"/>
-        <v>-0.62890135379400003</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="41"/>
         <v>-3.4477864208694843E-2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C45">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D45">
+        <v>-5.8419486189828995E-4</v>
+      </c>
+      <c r="J45">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E45">
+        <v>539.34280784279997</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F45">
+        <v>30.426580020480003</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G45" s="1">
+        <v>123009.80499999999</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I45">
+        <v>0.19986123801420003</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="35"/>
+        <v>-0.101705881368</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="36"/>
-        <v>-5.8419486189828995E-4</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="37"/>
-        <v>539.34280784279997</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="38"/>
-        <v>30.426580020480003</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="39"/>
-        <v>123009.80499999999</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="40"/>
-        <v>0.19986123801420003</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="40"/>
-        <v>-0.101705881368</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="41"/>
         <v>-1.56939322998699E-3</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C46">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D46">
+        <v>3.3504794355082988E-2</v>
+      </c>
+      <c r="J46">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E46">
+        <v>542.99434168640005</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F46">
+        <v>30.529404117600002</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G46" s="1">
+        <v>123425.508</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I46">
+        <v>0.24093890387280001</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="35"/>
+        <v>0.34168686106379997</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="36"/>
-        <v>3.3504794355082988E-2</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="37"/>
-        <v>542.99434168640005</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="38"/>
-        <v>30.529404117600002</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="39"/>
-        <v>123425.508</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="40"/>
-        <v>0.24093890387280001</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="40"/>
-        <v>0.34168686106379997</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="41"/>
         <v>2.6225637279589455E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C47">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D47">
+        <v>7.1305227971759449E-2</v>
+      </c>
+      <c r="J47">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E47">
+        <v>540.96493802800001</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F47">
+        <v>30.472300477680001</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G47" s="1">
+        <v>123194.641</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I47">
+        <v>0.30018670326960001</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="35"/>
+        <v>0.91934578803059996</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="36"/>
-        <v>7.1305227971759449E-2</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="37"/>
-        <v>540.96493802800001</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="38"/>
-        <v>30.472300477680001</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="39"/>
-        <v>123194.641</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="40"/>
-        <v>0.30018670326960001</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="40"/>
-        <v>0.91934578803059996</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="41"/>
         <v>6.2273066455217907E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C48">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I48">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D48">
+        <v>0.10375000463415825</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E48">
+        <v>508.67960379959999</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F48">
+        <v>29.549005651680002</v>
+      </c>
+      <c r="L48">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G48" s="1">
+        <v>119461.914</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I48">
+        <v>0.33508112091719999</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="35"/>
+        <v>1.4653616347944001</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="36"/>
-        <v>0.10375000463415825</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="37"/>
-        <v>508.67960379959999</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="38"/>
-        <v>29.549005651680002</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="39"/>
-        <v>119461.914</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="40"/>
-        <v>0.33508112091719999</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="40"/>
-        <v>1.4653616347944001</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="41"/>
         <v>9.3812577038516295E-2</v>
       </c>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C49">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D49">
+        <v>0.13854664963913246</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E49">
+        <v>536.64026876560001</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F49">
+        <v>30.350252095920002</v>
+      </c>
+      <c r="L49">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G49" s="1">
+        <v>122701.219</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I49">
+        <v>0.37413627010620004</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="35"/>
+        <v>2.0347161353610002</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="36"/>
-        <v>0.13854664963913246</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="37"/>
-        <v>536.64026876560001</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="38"/>
-        <v>30.350252095920002</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="39"/>
-        <v>122701.219</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="40"/>
-        <v>0.37413627010620004</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="40"/>
-        <v>2.0347161353610002</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="41"/>
         <v>0.12577232906003238</v>
       </c>
     </row>
     <row r="50" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C50">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I50">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D50">
+        <v>0.17510779127647932</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E50">
+        <v>552.18560834720006</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F50">
+        <v>30.7867068288</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G50" s="1">
+        <v>124465.742</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I50">
+        <v>0.48970898801999996</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="35"/>
+        <v>2.4784268810406003</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="36"/>
-        <v>0.17510779127647932</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="37"/>
-        <v>552.18560834720006</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="38"/>
-        <v>30.7867068288</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="39"/>
-        <v>124465.742</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="40"/>
-        <v>0.48970898801999996</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="40"/>
-        <v>2.4784268810406003</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="41"/>
         <v>0.14918603822329474</v>
       </c>
     </row>
     <row r="51" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C51">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I51">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D51">
+        <v>0.20907768603208859</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E51">
+        <v>539.91176343800009</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F51">
+        <v>30.44262319896</v>
+      </c>
+      <c r="L51">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G51" s="1">
+        <v>123074.664</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I51">
+        <v>0.53312833033319995</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="35"/>
+        <v>2.5941112492764002</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="36"/>
-        <v>0.20907768603208859</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="37"/>
-        <v>539.91176343800009</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="38"/>
-        <v>30.44262319896</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="39"/>
-        <v>123074.664</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="40"/>
-        <v>0.53312833033319995</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="40"/>
-        <v>2.5941112492764002</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="41"/>
         <v>0.15363460249314731</v>
       </c>
     </row>
     <row r="52" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C52">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I52">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D52">
+        <v>0.24295659153780363</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E52">
+        <v>546.74316059360001</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F52">
+        <v>30.634611628800002</v>
+      </c>
+      <c r="L52">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G52" s="1">
+        <v>123850.844</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I52">
+        <v>0.61191742708320007</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="35"/>
+        <v>2.7353064261054003</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="36"/>
-        <v>0.24295659153780363</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="37"/>
-        <v>546.74316059360001</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="38"/>
-        <v>30.634611628800002</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="39"/>
-        <v>123850.844</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="40"/>
-        <v>0.61191742708320007</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="40"/>
-        <v>2.7353064261054003</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="41"/>
         <v>0.1594188983189358</v>
       </c>
     </row>
     <row r="53" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C53">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I53">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D53">
+        <v>0.27895441925789016</v>
+      </c>
+      <c r="J53">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E53">
+        <v>567.45150330599995</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F53">
+        <v>31.209374208000003</v>
+      </c>
+      <c r="L53">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G53" s="1">
+        <v>126174.516</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I53">
+        <v>0.71395020813900001</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="35"/>
+        <v>2.8307564198297999</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="36"/>
-        <v>0.27895441925789016</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="37"/>
-        <v>567.45150330599995</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="38"/>
-        <v>31.209374208000003</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="39"/>
-        <v>126174.516</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="40"/>
-        <v>0.71395020813900001</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="40"/>
-        <v>2.8307564198297999</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="41"/>
         <v>0.16397598113162803</v>
       </c>
     </row>
     <row r="54" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C54">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I54">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D54">
+        <v>0.31265730481788306</v>
+      </c>
+      <c r="J54">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E54">
+        <v>546.06512989520002</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F54">
+        <v>30.615610396800005</v>
+      </c>
+      <c r="L54">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G54" s="1">
+        <v>123774.023</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I54">
+        <v>0.75035524129859998</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="35"/>
+        <v>2.8654637008620001</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="36"/>
-        <v>0.31265730481788306</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="37"/>
-        <v>546.06512989520002</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="38"/>
-        <v>30.615610396800005</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="39"/>
-        <v>123774.023</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="40"/>
-        <v>0.75035524129859998</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="40"/>
-        <v>2.8654637008620001</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="41"/>
         <v>0.16667211787139594</v>
       </c>
     </row>
     <row r="55" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C55">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I55">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D55">
+        <v>0.34995849555413988</v>
+      </c>
+      <c r="J55">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E55">
+        <v>544.38225687440001</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F55">
+        <v>30.568396876800001</v>
+      </c>
+      <c r="L55">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G55" s="1">
+        <v>123583.148</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I55">
+        <v>0.81209159737440006</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="35"/>
+        <v>2.9433732955536001</v>
+      </c>
+      <c r="O55">
         <f t="shared" si="36"/>
-        <v>0.34995849555413988</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="37"/>
-        <v>544.38225687440001</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="38"/>
-        <v>30.568396876800001</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="39"/>
-        <v>123583.148</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="40"/>
-        <v>0.81209159737440006</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="40"/>
-        <v>2.9433732955536001</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="41"/>
         <v>0.17174462167572607</v>
       </c>
     </row>
     <row r="56" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C56">
+        <f t="shared" si="26"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="27"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="28"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="29"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="30"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I56">
         <f t="shared" si="31"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D56">
+        <v>0.38474084980319873</v>
+      </c>
+      <c r="J56">
         <f t="shared" si="32"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E56">
+        <v>536.32055874440005</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="33"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F56">
+        <v>30.34121081352</v>
+      </c>
+      <c r="L56">
         <f t="shared" si="34"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G56" s="1">
+        <v>122664.67200000001</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="35"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I56">
+        <v>0.88555555203359992</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="35"/>
+        <v>3.1576710981312002</v>
+      </c>
+      <c r="O56">
         <f t="shared" si="36"/>
-        <v>0.38474084980319873</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="37"/>
-        <v>536.32055874440005</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="38"/>
-        <v>30.34121081352</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="39"/>
-        <v>122664.67200000001</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="40"/>
-        <v>0.88555555203359992</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="40"/>
-        <v>3.1576710981312002</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="41"/>
         <v>0.18363113796018091</v>
       </c>
     </row>

--- a/Lab 6/neutral moment update.xlsx
+++ b/Lab 6/neutral moment update.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\ae460\lab05_06\AE-460\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC6E21C-785F-4066-B222-69D1662F00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B51E1-8430-4736-89DD-E60B5A812589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="0 ft" sheetId="1" r:id="rId1"/>
@@ -13735,16 +13735,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>696685</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>185056</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>674914</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16114,8 +16114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20086,7 +20086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC9146-1D19-EA45-93B1-07300A05A5AC}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>

--- a/Lab 6/neutral moment update.xlsx
+++ b/Lab 6/neutral moment update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\ae460\lab05_06\AE-460\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560B51E1-8430-4736-89DD-E60B5A812589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F7DEAA-70FA-4FCA-90D0-86B17BBAD0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
@@ -3579,7 +3579,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Series 1</c:v>
+            <c:v>2.6 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3706,7 +3706,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Series 2</c:v>
+            <c:v>2.65 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3782,7 +3782,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Series 3</c:v>
+            <c:v>2.7 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3858,7 +3858,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Series 4</c:v>
+            <c:v>2.75 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -3934,7 +3934,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Series 5</c:v>
+            <c:v>2.8 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4010,7 +4010,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Series 6</c:v>
+            <c:v>2.85 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4086,7 +4086,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Series 7</c:v>
+            <c:v>2.9 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -4555,6 +4555,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>2.25 in</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4692,7 +4695,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Series 2</c:v>
+            <c:v>2.3 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4831,7 +4834,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Series 3</c:v>
+            <c:v>2.35 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4970,7 +4973,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Series 4</c:v>
+            <c:v>2.4 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5109,7 +5112,7 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Series 5</c:v>
+            <c:v>2.45 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5248,7 +5251,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Series 6</c:v>
+            <c:v>2.5 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5387,7 +5390,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>Series 7</c:v>
+            <c:v>2.55 in</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5781,6 +5784,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -13735,16 +13769,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>696685</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>500744</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>674914</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:colOff>674915</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13776,16 +13810,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>316230</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>506730</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16114,8 +16148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
   <dimension ref="A1:AF62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20087,7 +20121,7 @@
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23178,7 +23212,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/Lab 6/neutral moment update.xlsx
+++ b/Lab 6/neutral moment update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\ae460\lab05_06\AE-460\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD1D041-5ABB-4FC0-ABEE-96D7D8A0BE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E828FE-3350-4098-BA99-312707622990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
@@ -508,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,9 +564,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1398,6 +1395,517 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>40 ft/s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'L-D Ratio'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'L-D Ratio'!$J$3:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.2422733819434713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1500149315094266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2387505790918491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.782255055793609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7617843162380324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5728098489166618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4739313189885286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1310114580951864</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.98415016316278803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77662318892531512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.64310147366945369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5614896681257131</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48406490455376938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40163489331785002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9720-3D44-B4E4-B6B43A92F010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100 ft/s</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'L-D Ratio'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'L-D Ratio'!$K$3:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-16.966385829856982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.3893318538787574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.50814721428748499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3218014285369324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4542822854526913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9333366782973216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0136433995282621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5768250294376491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2897046865296318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0030238976013233</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7224313166350149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5643764310734365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4032121630892371</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2933842881583335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9720-3D44-B4E4-B6B43A92F010}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="11316096"/>
+        <c:axId val="1415700672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11316096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415700672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1415700672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11316096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -6090,6 +6598,692 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C_M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Angle of Attack </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>40 ft_s: 2.4 in</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$P$24:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$P$40:$P$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-1.3733299999999962E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6367139999999971E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0108809999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.0761926000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.1229654000000037E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.3525134000000095E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.210054400000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.9960280000000117E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.2550090000000134E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2808964000000154E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9174594000000156E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.0828904000000148E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.010125200000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0755096000000195E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-451B-4224-ADC0-0F9F99F0DD29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>100 ft_s: 2.3 in</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'40 ft '!$P$24:$P$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-4.0709042000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9768829000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.4004100000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0190073900000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0295488800000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.92998504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0007105500000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0275877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.9743014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.0581964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.997199500000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.959525500000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.004430599999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.034937899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'40 ft '!$Q$40:$Q$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-7.1574199999997479E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0025409999999855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8697819999999973E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.5443573000000107E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.5805431000000256E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.2630244000000399E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.1107005000000658E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8910371000000499E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.8467634000000732E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3435209999994608E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2363386999999282E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.4463399999992177E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8348939999994762E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.4353479999993422E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-451B-4224-ADC0-0F9F99F0DD29}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1282341967"/>
+        <c:axId val="1282339887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1282341967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle of Attack (degrees)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1282339887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1282339887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>C_M</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1282341967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Neutral Moment vs Angle of Attack</a:t>
             </a:r>
           </a:p>
@@ -8905,7 +10099,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9527,7 +10721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10179,7 +11373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10715,7 +11909,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11226,518 +12420,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>40 ft/s</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'L-D Ratio'!$A$3:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'L-D Ratio'!$J$3:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.2422733819434713</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1500149315094266</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2387505790918491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.782255055793609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7617843162380324</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5728098489166618</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4739313189885286</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1310114580951864</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98415016316278803</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.77662318892531512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64310147366945369</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.5614896681257131</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.48406490455376938</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.40163489331785002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9720-3D44-B4E4-B6B43A92F010}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>100 ft/s</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'L-D Ratio'!$A$3:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'L-D Ratio'!$K$3:$K$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>-16.966385829856982</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5.3893318538787574</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.50814721428748499</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3218014285369324</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4542822854526913</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9333366782973216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0136433995282621</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5768250294376491</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2897046865296318</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0030238976013233</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7224313166350149</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.5643764310734365</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4032121630892371</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.2933842881583335</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9720-3D44-B4E4-B6B43A92F010}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="11316096"/>
-        <c:axId val="1415700672"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="11316096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1415700672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1415700672"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11316096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12098,6 +12821,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16822,16 +18061,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>97970</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>544284</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>141515</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>206829</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16856,6 +18095,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>32657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93C37EC-430A-D072-5C46-995B4D12B7F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16864,15 +18139,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>499110</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18379,23 +19654,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
@@ -19201,8 +20476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH55" sqref="AH55"/>
+    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -20739,24 +22014,24 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="29"/>
       <c r="T20">
         <v>22.034937899999999</v>
       </c>
@@ -23384,25 +24659,92 @@
         <v>5.7966979999999557E-2</v>
       </c>
     </row>
+    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P40">
+        <f>AC24</f>
+        <v>-1.3733299999999962E-2</v>
+      </c>
+      <c r="Q40">
+        <f>'100 ft'!AA4</f>
+        <v>-7.1574199999997479E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P41">
+        <f t="shared" ref="P41:P53" si="21">AC25</f>
+        <v>-1.6367139999999971E-2</v>
+      </c>
+      <c r="Q41">
+        <f>'100 ft'!AA5</f>
+        <v>-2.0025409999999855E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P42">
+        <f t="shared" si="21"/>
+        <v>-2.0108809999999998E-2</v>
+      </c>
+      <c r="Q42">
+        <f>'100 ft'!AA6</f>
+        <v>-3.8697819999999973E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P43">
+        <f t="shared" si="21"/>
+        <v>-2.0761926000000021E-2</v>
+      </c>
+      <c r="Q43">
+        <f>'100 ft'!AA7</f>
+        <v>-5.5443573000000107E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P44">
+        <f t="shared" si="21"/>
+        <v>-3.1229654000000037E-2</v>
+      </c>
+      <c r="Q44">
+        <f>'100 ft'!AA8</f>
+        <v>-7.5805431000000256E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P45">
+        <f t="shared" si="21"/>
+        <v>-3.3525134000000095E-2</v>
+      </c>
+      <c r="Q45">
+        <f>'100 ft'!AA9</f>
+        <v>-7.2630244000000399E-2</v>
+      </c>
+    </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46">
+        <f t="shared" si="21"/>
+        <v>-3.210054400000012E-2</v>
+      </c>
+      <c r="Q46">
+        <f>'100 ft'!AA10</f>
+        <v>-6.1107005000000658E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
@@ -23446,6 +24788,14 @@
       <c r="O47" t="s">
         <v>40</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="21"/>
+        <v>-2.9960280000000117E-2</v>
+      </c>
+      <c r="Q47">
+        <f>'100 ft'!AA11</f>
+        <v>-3.8910371000000499E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
@@ -23489,704 +24839,752 @@
       <c r="O48" t="s">
         <v>52</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="21"/>
+        <v>-2.2550090000000134E-2</v>
+      </c>
+      <c r="Q48">
+        <f>'100 ft'!AA12</f>
+        <v>-1.8467634000000732E-2</v>
+      </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C49">
-        <f t="shared" ref="C49:C62" si="21">C4*0.0254</f>
+        <f t="shared" ref="C49:C62" si="22">C4*0.0254</f>
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D62" si="22">D4*6894.76</f>
+        <f t="shared" ref="D49:D62" si="23">D4*6894.76</f>
         <v>99186.524644460005</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E62" si="23">E4*0.555556</f>
+        <f t="shared" ref="E49:E62" si="24">E4*0.555556</f>
         <v>296.65023732000003</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F62" si="24">F4*515.379</f>
+        <f t="shared" ref="F49:F62" si="25">F4*515.379</f>
         <v>1.1651688432</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" ref="G49:G62" si="25">G4*157.087</f>
+        <f t="shared" ref="G49:G62" si="26">G4*157.087</f>
         <v>6.0007233999999997E-5</v>
       </c>
       <c r="I49">
-        <f t="shared" ref="I49:I62" si="26">I4/180*PI()</f>
+        <f t="shared" ref="I49:I62" si="27">I4/180*PI()</f>
         <v>-7.1050681823265752E-2</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J62" si="27">J4*6894.76</f>
+        <f t="shared" ref="J49:J62" si="28">J4*6894.76</f>
         <v>83.418184392800001</v>
       </c>
       <c r="K49">
-        <f t="shared" ref="K49:K62" si="28">K4*0.3048</f>
+        <f t="shared" ref="K49:K62" si="29">K4*0.3048</f>
         <v>11.96605797792</v>
       </c>
       <c r="L49">
-        <f t="shared" ref="L49:L62" si="29">L4</f>
+        <f t="shared" ref="L49:L62" si="30">L4</f>
         <v>48376.863299999997</v>
       </c>
       <c r="M49">
-        <f t="shared" ref="M49:N62" si="30">M4*4.44822</f>
+        <f t="shared" ref="M49:N62" si="31">M4*4.44822</f>
         <v>-0.13627566792000001</v>
       </c>
       <c r="N49">
+        <f t="shared" si="31"/>
+        <v>-0.14662889997</v>
+      </c>
+      <c r="O49">
+        <f t="shared" ref="O49:O62" si="32">O4*0.1129848333</f>
+        <v>-7.3868467148040301E-3</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="21"/>
+        <v>-2.2808964000000154E-2</v>
+      </c>
+      <c r="Q49">
+        <f>'100 ft'!AA13</f>
+        <v>3.3435209999994608E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="27"/>
+        <v>-3.4503115531373814E-2</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="28"/>
+        <v>85.712691573200004</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="29"/>
+        <v>12.129509629680001</v>
+      </c>
+      <c r="L50">
         <f t="shared" si="30"/>
-        <v>-0.14662889997</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49:O62" si="31">O4*0.1129848333</f>
-        <v>-7.3868467148040301E-3</v>
+        <v>49037.671900000001</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="31"/>
+        <v>-7.5195379812000002E-2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="31"/>
+        <v>-8.0677810961999996E-2</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="32"/>
+        <v>-3.06888274361127E-3</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="21"/>
+        <v>-1.9174594000000156E-2</v>
+      </c>
+      <c r="Q50">
+        <f>'100 ft'!AA14</f>
+        <v>1.2363386999999282E-2</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C50">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C51">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="27"/>
+        <v>-5.9348350417740383E-4</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="28"/>
+        <v>86.146923557999997</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="29"/>
+        <v>12.160196131680001</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="30"/>
+        <v>49161.730499999998</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="31"/>
+        <v>-3.6161359668E-2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="31"/>
+        <v>-8.610864276E-3</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="32"/>
+        <v>1.7470720489862371E-3</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="21"/>
+        <v>-2.0828904000000148E-2</v>
+      </c>
+      <c r="Q51">
+        <f>'100 ft'!AA15</f>
+        <v>6.4463399999992177E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C52">
+        <f t="shared" si="22"/>
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="D50">
+      <c r="D52">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="27"/>
+        <v>3.5238326577597234E-2</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="28"/>
+        <v>84.706608194000012</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="29"/>
+        <v>12.058110504</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="30"/>
+        <v>48749.015599999999</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="31"/>
+        <v>1.8839234790600002E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="31"/>
+        <v>8.298359028119999E-2</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="32"/>
+        <v>7.4044644398604982E-3</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="21"/>
+        <v>-2.010125200000018E-2</v>
+      </c>
+      <c r="Q52">
+        <f>'100 ft'!AA16</f>
+        <v>1.8348939999994762E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C53">
         <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="23"/>
         <v>99186.524644460005</v>
       </c>
-      <c r="E50">
+      <c r="E53">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="27"/>
+        <v>7.0328895326049884E-2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="28"/>
+        <v>84.459637890799996</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="29"/>
+        <v>12.040519703519999</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="30"/>
+        <v>48677.898399999998</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="31"/>
+        <v>7.662374773620001E-2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="31"/>
+        <v>0.16028511329880002</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="32"/>
+        <v>1.3299461675467996E-2</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="21"/>
+        <v>-2.0755096000000195E-2</v>
+      </c>
+      <c r="Q53">
+        <f>'100 ft'!AA17</f>
+        <v>7.4353479999993422E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C54">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D54">
         <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="24"/>
         <v>296.65023732000003</v>
       </c>
-      <c r="F50">
+      <c r="F54">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="27"/>
+        <v>0.10349776354200764</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="28"/>
+        <v>84.277960964800002</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="29"/>
+        <v>12.027564697679999</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="30"/>
+        <v>48625.523399999998</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="31"/>
+        <v>0.12544340705820001</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="31"/>
+        <v>0.25139822596979999</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="32"/>
+        <v>1.9113073675952837E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C55">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E55">
         <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="25"/>
         <v>1.1651688432</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G55" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="27"/>
+        <v>0.13963874159654643</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="28"/>
+        <v>83.971626778000001</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="29"/>
+        <v>12.005688104399999</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="30"/>
+        <v>48537.078099999999</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="31"/>
+        <v>0.1576609748742</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="31"/>
+        <v>0.32105245812779998</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="32"/>
+        <v>2.3198240307069278E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F56">
         <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="26"/>
         <v>6.0007233999999997E-5</v>
       </c>
-      <c r="I50">
+      <c r="I56">
+        <f t="shared" si="27"/>
+        <v>0.17501442139748538</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="28"/>
+        <v>85.500677703199997</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="29"/>
+        <v>12.114497742000001</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="30"/>
+        <v>48976.980499999998</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="31"/>
+        <v>0.23616240523679999</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="31"/>
+        <v>0.38607168952800003</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="32"/>
+        <v>2.6919996871117933E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C57">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G57" s="1">
         <f t="shared" si="26"/>
-        <v>-3.4503115531373814E-2</v>
-      </c>
-      <c r="J50">
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I57">
         <f t="shared" si="27"/>
-        <v>85.712691573200004</v>
-      </c>
-      <c r="K50">
+        <v>0.20899098505616653</v>
+      </c>
+      <c r="J57">
         <f t="shared" si="28"/>
-        <v>12.129509629680001</v>
-      </c>
-      <c r="L50">
+        <v>86.537994345200005</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="29"/>
-        <v>49037.671900000001</v>
-      </c>
-      <c r="M50">
+        <v>12.1877676996</v>
+      </c>
+      <c r="L57">
         <f t="shared" si="30"/>
-        <v>-7.5195379812000002E-2</v>
-      </c>
-      <c r="N50">
+        <v>49273.199200000003</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="31"/>
+        <v>0.29173944452520001</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="31"/>
+        <v>0.44104813015200006</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="32"/>
+        <v>2.943412295337787E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C58">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="27"/>
+        <v>0.24536181407201374</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="28"/>
+        <v>87.571243078799995</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="29"/>
+        <v>12.260307447839999</v>
+      </c>
+      <c r="L58">
         <f t="shared" si="30"/>
-        <v>-8.0677810961999996E-2</v>
-      </c>
-      <c r="O50">
+        <v>49566.464800000002</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="31"/>
-        <v>-3.06888274361127E-3</v>
+        <v>0.36606937865400002</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="31"/>
+        <v>0.46673032866180003</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="32"/>
+        <v>3.102895923797569E-2</v>
       </c>
     </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <f t="shared" si="21"/>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C59">
+        <f t="shared" si="22"/>
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="D51">
+      <c r="D59">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="27"/>
+        <v>0.27920380237339065</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="28"/>
+        <v>85.607822273599993</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="29"/>
+        <v>12.122087993520001</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="30"/>
+        <v>49007.664100000002</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="31"/>
+        <v>0.40980699110820001</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="31"/>
+        <v>0.46716914556479999</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="32"/>
+        <v>3.0645080838507276E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C60">
         <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="23"/>
         <v>99186.524644460005</v>
       </c>
-      <c r="E51">
+      <c r="E60">
+        <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="27"/>
+        <v>0.31345285207088092</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="28"/>
+        <v>84.517484927200002</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="29"/>
+        <v>12.044643891360002</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="30"/>
+        <v>48694.570299999999</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="31"/>
+        <v>0.4638061577982</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="31"/>
+        <v>0.50215194934380003</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="32"/>
+        <v>3.2964545351474639E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D61">
         <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="24"/>
         <v>296.65023732000003</v>
       </c>
-      <c r="F51">
+      <c r="F61">
+        <f t="shared" si="25"/>
+        <v>1.1651688432</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="26"/>
+        <v>6.0007233999999997E-5</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="27"/>
+        <v>0.34914317895670477</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="28"/>
+        <v>87.631985914400005</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="29"/>
+        <v>12.264563004480001</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="30"/>
+        <v>49583.667999999998</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="31"/>
+        <v>0.52808258094060001</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="31"/>
+        <v>0.54369245249340004</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="32"/>
+        <v>3.5414641798855138E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C62">
+        <f t="shared" si="22"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="23"/>
+        <v>99186.524644460005</v>
+      </c>
+      <c r="E62">
         <f t="shared" si="24"/>
+        <v>296.65023732000003</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="25"/>
         <v>1.1651688432</v>
       </c>
-      <c r="G51" s="1">
-        <f t="shared" si="25"/>
+      <c r="G62" s="1">
+        <f t="shared" si="26"/>
         <v>6.0007233999999997E-5</v>
       </c>
-      <c r="I51">
-        <f t="shared" si="26"/>
-        <v>-5.9348350417740383E-4</v>
-      </c>
-      <c r="J51">
+      <c r="I62">
         <f t="shared" si="27"/>
-        <v>86.146923557999997</v>
-      </c>
-      <c r="K51">
+        <v>0.384582216827485</v>
+      </c>
+      <c r="J62">
         <f t="shared" si="28"/>
-        <v>12.160196131680001</v>
-      </c>
-      <c r="L51">
+        <v>87.180999662800005</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="29"/>
-        <v>49161.730499999998</v>
-      </c>
-      <c r="M51">
+        <v>12.23296377888</v>
+      </c>
+      <c r="L62">
         <f t="shared" si="30"/>
-        <v>-3.6161359668E-2</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="30"/>
-        <v>-8.610864276E-3</v>
-      </c>
-      <c r="O51">
+        <v>49455.917999999998</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="31"/>
-        <v>1.7470720489862371E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C52">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G52" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="26"/>
-        <v>3.5238326577597234E-2</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="27"/>
-        <v>84.706608194000012</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="28"/>
-        <v>12.058110504</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="29"/>
-        <v>48749.015599999999</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="30"/>
-        <v>1.8839234790600002E-2</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="30"/>
-        <v>8.298359028119999E-2</v>
-      </c>
-      <c r="O52">
+        <v>0.60611165482139995</v>
+      </c>
+      <c r="N62">
         <f t="shared" si="31"/>
-        <v>7.4044644398604982E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C53">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G53" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="26"/>
-        <v>7.0328895326049884E-2</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="27"/>
-        <v>84.459637890799996</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="28"/>
-        <v>12.040519703519999</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="29"/>
-        <v>48677.898399999998</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="30"/>
-        <v>7.662374773620001E-2</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="30"/>
-        <v>0.16028511329880002</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="31"/>
-        <v>1.3299461675467996E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C54">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G54" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="26"/>
-        <v>0.10349776354200764</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="27"/>
-        <v>84.277960964800002</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="28"/>
-        <v>12.027564697679999</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="29"/>
-        <v>48625.523399999998</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="30"/>
-        <v>0.12544340705820001</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="30"/>
-        <v>0.25139822596979999</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="31"/>
-        <v>1.9113073675952837E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C55">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G55" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="26"/>
-        <v>0.13963874159654643</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="27"/>
-        <v>83.971626778000001</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="28"/>
-        <v>12.005688104399999</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="29"/>
-        <v>48537.078099999999</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="30"/>
-        <v>0.1576609748742</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="30"/>
-        <v>0.32105245812779998</v>
-      </c>
-      <c r="O55">
-        <f t="shared" si="31"/>
-        <v>2.3198240307069278E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="26"/>
-        <v>0.17501442139748538</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="27"/>
-        <v>85.500677703199997</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="28"/>
-        <v>12.114497742000001</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="29"/>
-        <v>48976.980499999998</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="30"/>
-        <v>0.23616240523679999</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="30"/>
-        <v>0.38607168952800003</v>
-      </c>
-      <c r="O56">
-        <f t="shared" si="31"/>
-        <v>2.6919996871117933E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C57">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G57" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="26"/>
-        <v>0.20899098505616653</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="27"/>
-        <v>86.537994345200005</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="28"/>
-        <v>12.1877676996</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="29"/>
-        <v>49273.199200000003</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="30"/>
-        <v>0.29173944452520001</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="30"/>
-        <v>0.44104813015200006</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="31"/>
-        <v>2.943412295337787E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C58">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G58" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="26"/>
-        <v>0.24536181407201374</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="27"/>
-        <v>87.571243078799995</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="28"/>
-        <v>12.260307447839999</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="29"/>
-        <v>49566.464800000002</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="30"/>
-        <v>0.36606937865400002</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="30"/>
-        <v>0.46673032866180003</v>
-      </c>
-      <c r="O58">
-        <f t="shared" si="31"/>
-        <v>3.102895923797569E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C59">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G59" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I59">
-        <f t="shared" si="26"/>
-        <v>0.27920380237339065</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="27"/>
-        <v>85.607822273599993</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="28"/>
-        <v>12.122087993520001</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="29"/>
-        <v>49007.664100000002</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="30"/>
-        <v>0.40980699110820001</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="30"/>
-        <v>0.46716914556479999</v>
-      </c>
-      <c r="O59">
-        <f t="shared" si="31"/>
-        <v>3.0645080838507276E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E60">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G60" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I60">
-        <f t="shared" si="26"/>
-        <v>0.31345285207088092</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="27"/>
-        <v>84.517484927200002</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="28"/>
-        <v>12.044643891360002</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="29"/>
-        <v>48694.570299999999</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="30"/>
-        <v>0.4638061577982</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="30"/>
-        <v>0.50215194934380003</v>
-      </c>
-      <c r="O60">
-        <f t="shared" si="31"/>
-        <v>3.2964545351474639E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E61">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G61" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="26"/>
-        <v>0.34914317895670477</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="27"/>
-        <v>87.631985914400005</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="28"/>
-        <v>12.264563004480001</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="29"/>
-        <v>49583.667999999998</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="30"/>
-        <v>0.52808258094060001</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="30"/>
-        <v>0.54369245249340004</v>
-      </c>
-      <c r="O61">
-        <f t="shared" si="31"/>
-        <v>3.5414641798855138E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="C62">
-        <f t="shared" si="21"/>
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="22"/>
-        <v>99186.524644460005</v>
-      </c>
-      <c r="E62">
-        <f t="shared" si="23"/>
-        <v>296.65023732000003</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="24"/>
-        <v>1.1651688432</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="25"/>
-        <v>6.0007233999999997E-5</v>
-      </c>
-      <c r="I62">
-        <f t="shared" si="26"/>
-        <v>0.384582216827485</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="27"/>
-        <v>87.180999662800005</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="28"/>
-        <v>12.23296377888</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="29"/>
-        <v>49455.917999999998</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="30"/>
-        <v>0.60611165482139995</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="30"/>
         <v>0.58362185484119999</v>
       </c>
       <c r="O62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>3.7922613597245219E-2</v>
       </c>
     </row>
@@ -24204,8 +25602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23BC9146-1D19-EA45-93B1-07300A05A5AC}">
   <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView topLeftCell="P12" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -26482,23 +27880,23 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
       <c r="V20">
         <v>-2.0466473000000001</v>
       </c>
@@ -27549,23 +28947,23 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -28374,18 +29772,18 @@
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -28955,18 +30353,18 @@
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -29529,7 +30927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31448C-E105-E445-85D7-EC0F84352834}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="89" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
@@ -29540,18 +30938,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="36" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
@@ -30101,11 +31499,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -30154,22 +31552,22 @@
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="33" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="35"/>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="35"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="13" t="s">
         <v>79</v>
       </c>

--- a/Lab 6/neutral moment update.xlsx
+++ b/Lab 6/neutral moment update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shyam\Documents\ae460\lab05_06\AE-460\Lab 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E828FE-3350-4098-BA99-312707622990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7667A938-A4A4-4D5E-9DF5-00F8D9651D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7DB2D3F6-6F86-4E49-8BA8-4E3C7F5D5D0B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="90">
   <si>
     <t>Data Point</t>
   </si>
@@ -306,6 +306,9 @@
   <si>
     <t>Initial Guess:</t>
   </si>
+  <si>
+    <t>C_M values</t>
+  </si>
 </sst>
 </file>
 
@@ -328,7 +331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -593,6 +602,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18061,16 +18071,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>87086</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>206829</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>391886</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
+      <xdr:rowOff>195942</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18097,16 +18107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>707571</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>326572</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20476,8 +20486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB9CFD-C2AD-D349-8BB0-705312183456}">
   <dimension ref="A1:AO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" topLeftCell="J27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -24659,62 +24669,67 @@
         <v>5.7966979999999557E-2</v>
       </c>
     </row>
+    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="P39" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P40">
+      <c r="P40" s="38">
         <f>AC24</f>
         <v>-1.3733299999999962E-2</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="38">
         <f>'100 ft'!AA4</f>
         <v>-7.1574199999997479E-3</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P41">
+      <c r="P41" s="38">
         <f t="shared" ref="P41:P53" si="21">AC25</f>
         <v>-1.6367139999999971E-2</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="38">
         <f>'100 ft'!AA5</f>
         <v>-2.0025409999999855E-2</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P42">
+      <c r="P42" s="38">
         <f t="shared" si="21"/>
         <v>-2.0108809999999998E-2</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="38">
         <f>'100 ft'!AA6</f>
         <v>-3.8697819999999973E-2</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P43">
+      <c r="P43" s="38">
         <f t="shared" si="21"/>
         <v>-2.0761926000000021E-2</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="38">
         <f>'100 ft'!AA7</f>
         <v>-5.5443573000000107E-2</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P44">
+      <c r="P44" s="38">
         <f t="shared" si="21"/>
         <v>-3.1229654000000037E-2</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="38">
         <f>'100 ft'!AA8</f>
         <v>-7.5805431000000256E-2</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="P45">
+      <c r="P45" s="38">
         <f t="shared" si="21"/>
         <v>-3.3525134000000095E-2</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="38">
         <f>'100 ft'!AA9</f>
         <v>-7.2630244000000399E-2</v>
       </c>
@@ -24737,11 +24752,11 @@
       <c r="M46" s="30"/>
       <c r="N46" s="30"/>
       <c r="O46" s="30"/>
-      <c r="P46">
+      <c r="P46" s="38">
         <f t="shared" si="21"/>
         <v>-3.210054400000012E-2</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="38">
         <f>'100 ft'!AA10</f>
         <v>-6.1107005000000658E-2</v>
       </c>
@@ -24788,11 +24803,11 @@
       <c r="O47" t="s">
         <v>40</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="38">
         <f t="shared" si="21"/>
         <v>-2.9960280000000117E-2</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="38">
         <f>'100 ft'!AA11</f>
         <v>-3.8910371000000499E-2</v>
       </c>
@@ -24839,11 +24854,11 @@
       <c r="O48" t="s">
         <v>52</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="38">
         <f t="shared" si="21"/>
         <v>-2.2550090000000134E-2</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="38">
         <f>'100 ft'!AA12</f>
         <v>-1.8467634000000732E-2</v>
       </c>
@@ -24897,11 +24912,11 @@
         <f t="shared" ref="O49:O62" si="32">O4*0.1129848333</f>
         <v>-7.3868467148040301E-3</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="38">
         <f t="shared" si="21"/>
         <v>-2.2808964000000154E-2</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="38">
         <f>'100 ft'!AA13</f>
         <v>3.3435209999994608E-3</v>
       </c>
@@ -24955,11 +24970,11 @@
         <f t="shared" si="32"/>
         <v>-3.06888274361127E-3</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="38">
         <f t="shared" si="21"/>
         <v>-1.9174594000000156E-2</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="38">
         <f>'100 ft'!AA14</f>
         <v>1.2363386999999282E-2</v>
       </c>
@@ -25013,11 +25028,11 @@
         <f t="shared" si="32"/>
         <v>1.7470720489862371E-3</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="38">
         <f t="shared" si="21"/>
         <v>-2.0828904000000148E-2</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="38">
         <f>'100 ft'!AA15</f>
         <v>6.4463399999992177E-3</v>
       </c>
@@ -25071,11 +25086,11 @@
         <f t="shared" si="32"/>
         <v>7.4044644398604982E-3</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="38">
         <f t="shared" si="21"/>
         <v>-2.010125200000018E-2</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="38">
         <f>'100 ft'!AA16</f>
         <v>1.8348939999994762E-3</v>
       </c>
@@ -25129,11 +25144,11 @@
         <f t="shared" si="32"/>
         <v>1.3299461675467996E-2</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="38">
         <f t="shared" si="21"/>
         <v>-2.0755096000000195E-2</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="38">
         <f>'100 ft'!AA17</f>
         <v>7.4353479999993422E-3</v>
       </c>
